--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -444,6 +444,7 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
     </r>
@@ -786,10 +787,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${na.openingdate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.deliverydate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -814,10 +811,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${na.enddate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -828,6 +821,14 @@
   <si>
     <t xml:space="preserve">Office Scan </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="30"/>
   </si>
 </sst>
 </file>
@@ -985,19 +986,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1659,7 +1664,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1930,116 +1935,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2047,7 +1974,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,6 +2007,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2073,21 +2039,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,159 +2066,204 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2288,36 +2293,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2346,6 +2321,40 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2655,7 +2664,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2828,8 +2837,8 @@
       <c r="A14" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>134</v>
+      <c r="B14" s="247" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="80" t="s">
         <v>96</v>
@@ -2841,8 +2850,8 @@
       <c r="A15" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>141</v>
+      <c r="B15" s="247" t="s">
+        <v>144</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>96</v>
@@ -2855,7 +2864,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>96</v>
@@ -2868,7 +2877,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>96</v>
@@ -2881,7 +2890,7 @@
         <v>112</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>96</v>
@@ -2894,7 +2903,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>95</v>
@@ -2907,7 +2916,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>96</v>
@@ -2942,7 +2951,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>96</v>
@@ -2955,7 +2964,7 @@
         <v>116</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>96</v>
@@ -2982,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="101"/>
@@ -2992,7 +3001,7 @@
         <v>117</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" s="102"/>
       <c r="E27" s="103"/>
@@ -3077,34 +3086,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="94"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="110" t="str">
+      <c r="C3" s="172" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3118,203 +3127,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107" t="str">
+      <c r="C5" s="168"/>
+      <c r="D5" s="169" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="171"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114" t="str">
+      <c r="C6" s="134"/>
+      <c r="D6" s="175" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="174" t="str">
+      <c r="C7" s="134"/>
+      <c r="D7" s="110" t="str">
         <f>記入!B14</f>
-        <v>${na.openingdate}</v>
-      </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
+        <v>${statime[0]}</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="176" t="str">
+      <c r="H7" s="112" t="str">
         <f>記入!B15</f>
-        <v>${na.enddate}</v>
-      </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="177"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="117" t="str">
+      <c r="C8" s="134"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="117" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="119"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="128" t="str">
+      <c r="C9" s="128"/>
+      <c r="D9" s="153" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="130"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="161"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3328,91 +3337,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="137" t="str">
+      <c r="C21" s="128"/>
+      <c r="D21" s="162" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="139"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="142"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="142"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="124"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="142"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="142"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="142"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="148" t="str">
+      <c r="C27" s="134"/>
+      <c r="D27" s="135" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3426,112 +3435,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="120" t="s">
+      <c r="C29" s="140"/>
+      <c r="D29" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="117" t="str">
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="119"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="124"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="120" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="117" t="s">
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="119"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="154"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="160" t="s">
+      <c r="B31" s="142"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="120" t="s">
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="117" t="str">
+      <c r="H31" s="118"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="119"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="154"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="120" t="s">
+      <c r="B32" s="142"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="169" t="str">
+      <c r="H32" s="118"/>
+      <c r="I32" s="152" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="119"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="120" t="s">
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="117" t="s">
+      <c r="H33" s="118"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="119"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="144" t="s">
+      <c r="C35" s="125"/>
+      <c r="D35" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="145"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="125"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3579,44 +3588,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="147" t="s">
+      <c r="E45" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="123"/>
-      <c r="G45" s="147" t="s">
+      <c r="F45" s="128"/>
+      <c r="G45" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="123"/>
+      <c r="H45" s="128"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="124"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="125"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="126"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="127"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="132"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="170"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="171"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="172"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="173"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="166"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="168"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="109"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3624,6 +3633,37 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="E48:F50"/>
     <mergeCell ref="G48:H50"/>
     <mergeCell ref="D7:F7"/>
@@ -3636,37 +3676,6 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3712,28 +3721,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="95"/>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3780,12 +3789,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="208" t="s">
+      <c r="F6" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3806,12 +3815,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="208" t="s">
+      <c r="F8" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3860,160 +3869,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="210"/>
-      <c r="D13" s="211" t="str">
+      <c r="C13" s="186"/>
+      <c r="D13" s="187" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="213"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="189"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="187" t="str">
+      <c r="C14" s="191"/>
+      <c r="D14" s="192" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="180"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="214" t="str">
+      <c r="F15" s="191"/>
+      <c r="G15" s="195" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="180"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="187" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="189"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="179" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="180"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="179" t="s">
+      <c r="H17" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="193"/>
+      <c r="I17" s="204"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="191"/>
-      <c r="C18" s="204" t="str">
+      <c r="B18" s="202"/>
+      <c r="C18" s="178" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="179" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="180"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="210"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="191"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="212"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="191"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="206"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="212"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="212"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="191"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="206"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="212"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="192"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="208"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="203"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="214"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4055,14 +4064,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="178" t="s">
+      <c r="F27" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="178" t="str">
+      <c r="G27" s="215" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="178"/>
+      <c r="H27" s="215"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4070,11 +4079,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179" t="s">
+      <c r="F28" s="215"/>
+      <c r="G28" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="180"/>
+      <c r="H28" s="191"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4082,7 +4091,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="178"/>
+      <c r="F29" s="215"/>
       <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
@@ -4096,9 +4105,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4106,9 +4115,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4116,9 +4125,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4168,21 +4177,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4199,11 +4198,21 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4236,28 +4245,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4304,12 +4313,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="208" t="s">
+      <c r="F6" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4330,12 +4339,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="208" t="s">
+      <c r="F8" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4384,160 +4393,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="210"/>
-      <c r="D13" s="211" t="str">
+      <c r="C13" s="186"/>
+      <c r="D13" s="187" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="212"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="213"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="189"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="187" t="str">
+      <c r="C14" s="191"/>
+      <c r="D14" s="192" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="180"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="214" t="str">
+      <c r="F15" s="191"/>
+      <c r="G15" s="195" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="180"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="187" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="189"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="179" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="180"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="179" t="s">
+      <c r="H17" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="193"/>
+      <c r="I17" s="204"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="191"/>
-      <c r="C18" s="204" t="str">
+      <c r="B18" s="202"/>
+      <c r="C18" s="178" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="179" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="180"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="210"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="191"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="212"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="191"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="206"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="212"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="212"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="191"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="206"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="212"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="192"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="208"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="203"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="214"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4579,14 +4588,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="178" t="s">
+      <c r="F27" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="179" t="str">
+      <c r="G27" s="198" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="191"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4594,11 +4603,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179" t="s">
+      <c r="F28" s="215"/>
+      <c r="G28" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="180"/>
+      <c r="H28" s="191"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4606,7 +4615,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="178"/>
+      <c r="F29" s="215"/>
       <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
@@ -4620,9 +4629,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4630,9 +4639,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4640,9 +4649,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4692,26 +4701,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4728,6 +4717,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5153,55 +5162,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="228"/>
+      <c r="D3" s="238"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="230"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="231" t="str">
+      <c r="C5" s="241" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="232"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="244"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="245" t="str">
+      <c r="C7" s="235" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="246"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="246"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="239" t="str">
+      <c r="C9" s="229" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="240"/>
+      <c r="D9" s="230"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5217,34 +5226,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="241" t="s">
+      <c r="C11" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="242"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="243" t="str">
+      <c r="C12" s="233" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="244"/>
+      <c r="D12" s="234"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="235" t="str">
+      <c r="C13" s="245" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="236"/>
+      <c r="D13" s="246"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="238"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="228"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5270,16 +5279,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>住　所</t>
-  </si>
-  <si>
-    <t>　中国辽宁省大连市软件园东路23号</t>
-  </si>
-  <si>
-    <t>　15号楼401室</t>
   </si>
   <si>
     <t>　松下电器软件开发(大连) 有限公司</t>
@@ -829,6 +823,18 @@
   <si>
     <t>${statime[1]}</t>
     <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1914,6 +1920,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1935,66 +1945,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,27 +2077,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2039,15 +2088,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,86 +2121,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2153,12 +2241,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,21 +2265,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2207,63 +2274,6 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2293,6 +2303,36 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2321,40 +2361,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2663,7 +2669,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2676,335 +2682,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="99"/>
+      <c r="A1" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="D1" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
     </row>
     <row r="4" spans="1:5" s="72" customFormat="1">
       <c r="A4" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
     </row>
     <row r="6" spans="1:5" s="72" customFormat="1">
       <c r="A6" s="93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:5" s="72" customFormat="1">
       <c r="A7" s="93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
     </row>
     <row r="8" spans="1:5" s="72" customFormat="1">
       <c r="A8" s="91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="247" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="247" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="87"/>
       <c r="C21" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="87"/>
       <c r="C22" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="73" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+        <v>140</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
       <c r="A27" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+        <v>139</v>
+      </c>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
     </row>
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
@@ -3086,34 +3092,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="94"/>
-      <c r="B1" s="167" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
+      <c r="B1" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="172" t="str">
+      <c r="C3" s="111" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="174"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3127,203 +3133,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="171"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="175" t="str">
+      <c r="C6" s="114"/>
+      <c r="D6" s="115" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="110" t="str">
+      <c r="C7" s="114"/>
+      <c r="D7" s="175" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="112" t="str">
+        <v>56</v>
+      </c>
+      <c r="H7" s="177" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="114"/>
+      <c r="D8" s="118" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="166"/>
+      <c r="E8" s="119"/>
       <c r="F8" s="120"/>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="118" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="153" t="str">
+      <c r="C9" s="124"/>
+      <c r="D9" s="129" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3337,91 +3343,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="162" t="str">
+      <c r="C21" s="124"/>
+      <c r="D21" s="138" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135" t="str">
+      <c r="B27" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="149" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="138"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3435,83 +3441,83 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119" t="str">
+      <c r="C29" s="153"/>
+      <c r="D29" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="118" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
       <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="129"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="117" t="s">
+      <c r="B30" s="125"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="118" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="142"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="145" t="s">
+      <c r="B31" s="155"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="117" t="s">
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="122"/>
+      <c r="I31" s="118" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
       <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="142"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="117" t="s">
+      <c r="B32" s="155"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="152" t="str">
+      <c r="H32" s="122"/>
+      <c r="I32" s="170" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
       <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="117" t="s">
+      <c r="B33" s="156"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="122"/>
+      <c r="I33" s="118" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="120"/>
@@ -3519,28 +3525,28 @@
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="124" t="s">
+      <c r="C35" s="146"/>
+      <c r="D35" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="125"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3588,44 +3594,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="127" t="s">
+      <c r="E45" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="127" t="s">
+      <c r="F45" s="124"/>
+      <c r="G45" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="128"/>
+      <c r="H45" s="124"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="130"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="131"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="132"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="104"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="105"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="172"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="106"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="174"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="109"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="169"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3633,25 +3639,18 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3664,18 +3663,25 @@
     <mergeCell ref="D31:F33"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3701,8 +3707,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3721,28 +3727,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="95"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3751,7 +3757,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="44" t="str">
         <f>記入!B16</f>
@@ -3789,12 +3795,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
+      <c r="F6" s="209" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3802,7 +3808,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3815,12 +3821,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="184" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="F8" s="209" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3869,165 +3875,165 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187" t="str">
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="188" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="191"/>
+      <c r="B15" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="181"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="198" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="195" t="str">
+      <c r="E15" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="181"/>
+      <c r="G15" s="215" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="198" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="E16" s="180" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="181"/>
+      <c r="G16" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="198" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="204"/>
+      <c r="I17" s="194"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="202"/>
-      <c r="C18" s="178" t="str">
+      <c r="B18" s="192"/>
+      <c r="C18" s="205" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="198" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="191"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="209"/>
-      <c r="I18" s="210"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="202"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="212"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="202"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="212"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="202"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="206"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="202"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="212"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="203"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="214"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
@@ -4040,7 +4046,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
@@ -4064,14 +4070,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="215" t="str">
+      <c r="F27" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="179" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="215"/>
+      <c r="H27" s="179"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4079,11 +4085,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="198" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="191"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="180" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4091,12 +4097,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="215"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -4105,9 +4111,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4115,9 +4121,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4125,9 +4131,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4162,7 +4168,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -4177,11 +4183,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4198,21 +4214,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4227,7 +4233,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4245,28 +4253,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="182" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="B1" s="207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4275,7 +4283,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="44" t="str">
         <f>記入!B16</f>
@@ -4313,12 +4321,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
+      <c r="F6" s="209" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4326,7 +4334,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4339,12 +4347,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="184" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="F8" s="209" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4393,165 +4401,165 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187" t="str">
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="188" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="191"/>
+      <c r="B15" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="181"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="198" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="195" t="str">
+      <c r="E15" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="181"/>
+      <c r="G15" s="215" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="198" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="E16" s="180" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="181"/>
+      <c r="G16" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="198" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="204"/>
+      <c r="I17" s="194"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="202"/>
-      <c r="C18" s="178" t="str">
+      <c r="B18" s="192"/>
+      <c r="C18" s="205" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="198" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="191"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="209"/>
-      <c r="I18" s="210"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="202"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="212"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="202"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="212"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="202"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="206"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="202"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="212"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="203"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="214"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
@@ -4564,7 +4572,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
@@ -4588,14 +4596,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="198" t="str">
+      <c r="F27" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="191"/>
+      <c r="H27" s="181"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4603,11 +4611,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="198" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="191"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="180" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4615,12 +4623,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="215"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -4629,9 +4637,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4639,9 +4647,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4649,9 +4657,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4686,7 +4694,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -4701,6 +4709,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4717,26 +4745,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4771,99 +4779,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="222" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
+      <c r="B1" s="223" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="222" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
+      <c r="B2" s="223" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="225" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="226" t="str">
+      <c r="B4" s="226" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="224" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
+      <c r="B5" s="225" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="81" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="48"/>
-      <c r="G5" s="224" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="224"/>
+      <c r="G5" s="225" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="225"/>
       <c r="I5" s="81" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="224" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
+      <c r="B6" s="225" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="224" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="224"/>
+      <c r="G6" s="225" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="225"/>
       <c r="I6" s="82" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="217" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
+      <c r="B7" s="218" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="83" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -4875,50 +4883,50 @@
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
       <c r="B8" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
       <c r="B9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="E9" s="58" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
@@ -4928,38 +4936,38 @@
       <c r="E10" s="62"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="218" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="219"/>
+      <c r="H10" s="219" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="220"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="220" t="str">
+      <c r="D11" s="221" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="221"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="84" t="e">
@@ -4971,14 +4979,14 @@
       <c r="B13" s="48"/>
       <c r="C13" s="66"/>
       <c r="D13" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="84">
@@ -5029,7 +5037,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="66"/>
       <c r="D18" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="48"/>
@@ -5044,7 +5052,7 @@
       <c r="E19" s="70"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="84" t="str">
@@ -5094,7 +5102,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
@@ -5162,61 +5170,61 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="237" t="s">
+      <c r="C3" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="238"/>
+      <c r="D3" s="229"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="241" t="str">
+      <c r="C5" s="232" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="242"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="244"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="235" t="str">
+      <c r="C7" s="246" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="236"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="236"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="229" t="str">
+      <c r="C9" s="240" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="230"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
       <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>記入!B17</f>
@@ -5226,34 +5234,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="232"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="233" t="str">
+      <c r="C12" s="244" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="234"/>
+      <c r="D12" s="245"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="245" t="str">
+      <c r="C13" s="236" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="246"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="228"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5279,16 +5287,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -825,15 +825,19 @@
     <phoneticPr fontId="30"/>
   </si>
   <si>
-    <t>　黄浦路900号30号楼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>　中国遼寧省大連市高新技術産業園区</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1945,116 +1949,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2062,7 +1988,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,6 +2021,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2088,21 +2053,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2121,159 +2080,204 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2303,36 +2307,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2361,6 +2335,36 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3092,34 +3096,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="94"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="173" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3133,203 +3137,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="str">
+      <c r="C5" s="169"/>
+      <c r="D5" s="170" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="135"/>
+      <c r="D6" s="176" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="178"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="175" t="str">
+      <c r="C7" s="135"/>
+      <c r="D7" s="111" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="177" t="str">
+      <c r="H7" s="113" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118" t="str">
+      <c r="C8" s="135"/>
+      <c r="D8" s="120" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="str">
+      <c r="C9" s="129"/>
+      <c r="D9" s="154" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3343,91 +3347,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="138" t="str">
+      <c r="C21" s="129"/>
+      <c r="D21" s="163" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="149" t="str">
+      <c r="C27" s="135"/>
+      <c r="D27" s="136" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3441,112 +3445,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="121" t="s">
+      <c r="C29" s="141"/>
+      <c r="D29" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="118" t="str">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="120" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="130"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="118" t="s">
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="155"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="161" t="s">
+      <c r="B31" s="143"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118" t="str">
+      <c r="H31" s="119"/>
+      <c r="I31" s="120" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="155"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="121" t="s">
+      <c r="B32" s="143"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="170" t="str">
+      <c r="H32" s="119"/>
+      <c r="I32" s="153" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="121" t="s">
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="119"/>
+      <c r="I33" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="126"/>
+      <c r="D35" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="126"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3594,44 +3598,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="148" t="s">
+      <c r="F45" s="129"/>
+      <c r="G45" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="129"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="131"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="172"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="173"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="174"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="167"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="169"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="110"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3639,6 +3643,37 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="E48:F50"/>
     <mergeCell ref="G48:H50"/>
     <mergeCell ref="D7:F7"/>
@@ -3651,37 +3686,6 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3707,8 +3711,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3727,28 +3731,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="95"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3795,12 +3799,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="F6" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3808,7 +3812,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3821,12 +3825,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3875,160 +3879,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="187"/>
+      <c r="D13" s="188" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="192"/>
+      <c r="D14" s="193" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="179" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4070,14 +4074,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
+      <c r="F27" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="179" t="str">
+      <c r="G27" s="216" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="179"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4085,11 +4089,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4097,7 +4101,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4111,9 +4115,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4121,9 +4125,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4131,9 +4135,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4183,21 +4187,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4214,11 +4208,21 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4233,8 +4237,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4253,28 +4257,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4321,12 +4325,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="F6" s="185" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4334,7 +4338,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4347,12 +4351,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4401,160 +4405,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="187"/>
+      <c r="D13" s="188" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="192"/>
+      <c r="D14" s="193" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="179" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4596,14 +4600,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
+      <c r="F27" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="199" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="181"/>
+      <c r="H27" s="192"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4611,11 +4615,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4623,7 +4627,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4637,9 +4641,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4647,9 +4651,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4657,9 +4661,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4709,26 +4713,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4745,6 +4729,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5170,55 +5174,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="229"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="232" t="str">
+      <c r="C5" s="242" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="245"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="246" t="str">
+      <c r="C7" s="236" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="247"/>
+      <c r="D7" s="237"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="237"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="240" t="str">
+      <c r="C9" s="230" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="241"/>
+      <c r="D9" s="231"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5234,34 +5238,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="244" t="str">
+      <c r="C12" s="234" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="245"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="236" t="str">
+      <c r="C13" s="246" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="237"/>
+      <c r="D13" s="247"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="239"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5287,16 +5291,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,7 +36,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +952,6 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1674,7 +1678,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1949,66 +1953,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2021,27 +2085,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2053,15 +2096,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,86 +2129,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2167,12 +2249,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2197,21 +2273,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2221,63 +2282,6 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2307,6 +2311,36 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2336,42 +2370,18 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2379,12 +2389,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2426,7 +2439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2461,7 +2474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2673,8 +2686,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3096,34 +3109,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="94"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="173" t="str">
+      <c r="C3" s="111" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3137,203 +3150,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170" t="str">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="176" t="str">
+      <c r="C6" s="114"/>
+      <c r="D6" s="115" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="178"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="111" t="str">
+      <c r="C7" s="114"/>
+      <c r="D7" s="175" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="113" t="str">
+      <c r="H7" s="177" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="120" t="str">
+      <c r="C8" s="114"/>
+      <c r="D8" s="118" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="154" t="str">
+      <c r="C9" s="124"/>
+      <c r="D9" s="129" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="156"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3347,91 +3360,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="163" t="str">
+      <c r="C21" s="124"/>
+      <c r="D21" s="138" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136" t="str">
+      <c r="C27" s="114"/>
+      <c r="D27" s="149" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3445,112 +3458,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="140" t="s">
+      <c r="B29" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="118" t="s">
+      <c r="C29" s="153"/>
+      <c r="D29" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="120" t="str">
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="118" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="130"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="118" t="s">
+      <c r="B30" s="125"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="120" t="s">
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="143"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="146" t="s">
+      <c r="B31" s="155"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="118" t="s">
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120" t="str">
+      <c r="H31" s="122"/>
+      <c r="I31" s="118" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="143"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="118" t="s">
+      <c r="B32" s="155"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="153" t="str">
+      <c r="H32" s="122"/>
+      <c r="I32" s="170" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="118" t="s">
+      <c r="B33" s="156"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120" t="s">
+      <c r="H33" s="122"/>
+      <c r="I33" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="125" t="s">
+      <c r="C35" s="146"/>
+      <c r="D35" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="126"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3598,44 +3611,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="128" t="s">
+      <c r="E45" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="129"/>
-      <c r="G45" s="128" t="s">
+      <c r="F45" s="124"/>
+      <c r="G45" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="129"/>
+      <c r="H45" s="124"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="130"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="131"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="132"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="172"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="108"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="174"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="169"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3643,25 +3656,18 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3674,18 +3680,25 @@
     <mergeCell ref="D31:F33"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3731,28 +3744,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="95"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3799,12 +3812,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3825,12 +3838,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3879,160 +3892,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="188" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="F15" s="181"/>
+      <c r="G15" s="215" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="194"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="192"/>
+      <c r="C18" s="205" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="206"/>
+      <c r="E18" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4074,14 +4087,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="216" t="str">
+      <c r="G27" s="179" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="179"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4089,11 +4102,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
+      <c r="F28" s="179"/>
+      <c r="G28" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="192"/>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4101,7 +4114,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4115,9 +4128,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4125,9 +4138,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4135,9 +4148,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4187,11 +4200,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4208,21 +4231,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4237,9 +4250,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4257,28 +4268,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4306,16 +4317,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="248" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4325,12 +4336,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="209" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4351,12 +4362,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4405,160 +4416,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="188" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="F15" s="181"/>
+      <c r="G15" s="215" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="194"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="192"/>
+      <c r="C18" s="205" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="206"/>
+      <c r="E18" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4600,14 +4611,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="199" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="192"/>
+      <c r="H27" s="181"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4615,11 +4626,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
+      <c r="F28" s="179"/>
+      <c r="G28" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="192"/>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4627,7 +4638,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4641,9 +4652,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4651,9 +4662,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4661,9 +4672,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4712,7 +4723,28 @@
       <c r="B39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4729,26 +4761,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5174,55 +5186,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="238" t="s">
+      <c r="C3" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="239"/>
+      <c r="D3" s="229"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="242" t="str">
+      <c r="C5" s="232" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="243"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="245"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="236" t="str">
+      <c r="C7" s="246" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="237"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="237"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="240" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="231"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5238,34 +5250,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="234" t="str">
+      <c r="C12" s="244" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="245"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="246" t="str">
+      <c r="C13" s="236" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="247"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5291,16 +5303,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">CDラベル!$A$1:$F$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">INVOICE!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">出荷判定書!$A$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -443,6 +443,7 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
@@ -806,10 +807,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${na.currencyformat}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -843,6 +840,10 @@
   </si>
   <si>
     <t>　黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${na.deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -952,6 +953,8 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1000,22 +1003,26 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1027,7 +1034,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1039,7 +1046,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1678,7 +1685,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2282,6 +2289,12 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2371,10 +2384,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2686,7 +2696,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2861,7 +2871,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="80" t="s">
         <v>94</v>
@@ -2874,7 +2884,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>94</v>
@@ -2887,7 +2897,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>94</v>
@@ -2925,9 +2935,7 @@
       <c r="A19" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>137</v>
-      </c>
+      <c r="B19" s="86"/>
       <c r="C19" s="79" t="s">
         <v>93</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
@@ -3024,54 +3032,54 @@
         <v>115</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="104"/>
     </row>
-    <row r="28" spans="1:5" ht="13.5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="13.5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="13.5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="13.5">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="13.5">
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="13.5">
+    <row r="35" spans="1:1" ht="15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="13.5">
+    <row r="36" spans="1:1" ht="15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="13.5">
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="13.5">
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="13.5">
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="13.5">
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="13.5">
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="13.5">
+    <row r="42" spans="1:1" ht="15">
       <c r="A42" s="2"/>
     </row>
   </sheetData>
@@ -3724,9 +3732,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3776,9 +3782,8 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="44" t="str">
-        <f>記入!B16</f>
-        <v>${na.deliveryfinshdate}</v>
+      <c r="H3" s="44" t="s">
+        <v>146</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -3793,16 +3798,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="250" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3813,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="209" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" s="209"/>
       <c r="H6" s="209"/>
@@ -3825,7 +3830,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4183,7 +4188,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4195,11 +4200,11 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -4215,6 +4220,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4250,7 +4256,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4300,9 +4308,8 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="44" t="str">
-        <f>記入!B16</f>
-        <v>${na.deliveryfinshdate}</v>
+      <c r="H3" s="44" t="s">
+        <v>146</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -4317,16 +4324,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="248" t="str">
+      <c r="B5" s="218" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4337,7 +4344,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="209" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="209"/>
       <c r="H6" s="209"/>
@@ -4349,7 +4356,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4707,7 +4714,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4719,7 +4726,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4729,11 +4736,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
@@ -4745,6 +4747,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4795,99 +4802,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="223" t="s">
+      <c r="B1" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="227" t="str">
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="229" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="81" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="48"/>
-      <c r="G5" s="225" t="s">
+      <c r="G5" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="225"/>
+      <c r="H5" s="227"/>
       <c r="I5" s="81" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="227" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="49" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="225" t="s">
+      <c r="G6" s="227" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="225"/>
+      <c r="H6" s="227"/>
       <c r="I6" s="82" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
       <c r="E7" s="83" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -4952,23 +4959,23 @@
       <c r="E10" s="62"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="219" t="s">
+      <c r="H10" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="220"/>
+      <c r="I10" s="222"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="221" t="str">
+      <c r="D11" s="223" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="65" t="s">
@@ -5186,55 +5193,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="229"/>
+      <c r="D3" s="231"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="232" t="str">
+      <c r="C5" s="234" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="237"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="246" t="str">
+      <c r="C7" s="248" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="247"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="240" t="str">
+      <c r="C9" s="242" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="241"/>
+      <c r="D9" s="243"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5250,34 +5257,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="245"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="244" t="str">
+      <c r="C12" s="246" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="245"/>
+      <c r="D12" s="247"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="236" t="str">
+      <c r="C13" s="238" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="237"/>
+      <c r="D13" s="239"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="239"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -1685,7 +1685,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1960,116 +1960,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2077,7 +1999,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,6 +2032,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2103,21 +2064,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2136,159 +2091,204 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -2324,36 +2324,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2383,8 +2353,35 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3117,34 +3114,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="94"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="173" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3158,203 +3155,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="str">
+      <c r="C5" s="169"/>
+      <c r="D5" s="170" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="135"/>
+      <c r="D6" s="176" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="178"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="175" t="str">
+      <c r="C7" s="135"/>
+      <c r="D7" s="111" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="177" t="str">
+      <c r="H7" s="113" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118" t="str">
+      <c r="C8" s="135"/>
+      <c r="D8" s="120" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="str">
+      <c r="C9" s="129"/>
+      <c r="D9" s="154" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3368,91 +3365,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="138" t="str">
+      <c r="C21" s="129"/>
+      <c r="D21" s="163" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="149" t="str">
+      <c r="C27" s="135"/>
+      <c r="D27" s="136" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3466,112 +3463,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="121" t="s">
+      <c r="C29" s="141"/>
+      <c r="D29" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="118" t="str">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="120" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="130"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="118" t="s">
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="155"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="161" t="s">
+      <c r="B31" s="143"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118" t="str">
+      <c r="H31" s="119"/>
+      <c r="I31" s="120" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="155"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="121" t="s">
+      <c r="B32" s="143"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="170" t="str">
+      <c r="H32" s="119"/>
+      <c r="I32" s="153" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="121" t="s">
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="119"/>
+      <c r="I33" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="126"/>
+      <c r="D35" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="126"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3619,44 +3616,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="148" t="s">
+      <c r="F45" s="129"/>
+      <c r="G45" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="129"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="131"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="172"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="173"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="174"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="167"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="169"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="110"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3664,6 +3661,37 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="E48:F50"/>
     <mergeCell ref="G48:H50"/>
     <mergeCell ref="D7:F7"/>
@@ -3676,37 +3704,6 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D31:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3732,7 +3729,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3750,28 +3749,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="95"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3798,16 +3797,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="250" t="str">
+      <c r="B5" s="218" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3817,12 +3816,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3843,12 +3842,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3897,160 +3896,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="187"/>
+      <c r="D13" s="188" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="192"/>
+      <c r="D14" s="193" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="179" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4092,14 +4091,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
+      <c r="F27" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="179" t="str">
+      <c r="G27" s="216" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="179"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4107,11 +4106,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4119,7 +4118,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4133,9 +4132,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4143,9 +4142,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4153,9 +4152,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4205,6 +4204,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -4221,27 +4241,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4276,28 +4275,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4343,12 +4342,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="185" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4369,12 +4368,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4423,160 +4422,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="187"/>
+      <c r="D13" s="188" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="192"/>
+      <c r="D14" s="193" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="179" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4618,14 +4617,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
+      <c r="F27" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="199" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="181"/>
+      <c r="H27" s="192"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4633,11 +4632,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4645,7 +4644,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4659,9 +4658,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4669,9 +4668,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4679,9 +4678,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4731,6 +4730,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
@@ -4747,27 +4767,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5193,55 +5192,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="231"/>
+      <c r="D3" s="241"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="234" t="str">
+      <c r="C5" s="244" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="235"/>
+      <c r="D5" s="245"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="237"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="247"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="248" t="str">
+      <c r="C7" s="238" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="249"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="249"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="242" t="str">
+      <c r="C9" s="232" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="243"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5257,34 +5256,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="244" t="s">
+      <c r="C11" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="245"/>
+      <c r="D11" s="235"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="246" t="str">
+      <c r="C12" s="236" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="247"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="238" t="str">
+      <c r="C13" s="248" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="239"/>
+      <c r="D13" s="249"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="241"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="231"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5310,16 +5309,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -787,14 +787,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${na.deliverydate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.completiondate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.claimamount}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -807,43 +799,51 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Scan </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${na.deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
+    <t>${deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Office Scan </t>
+    <t>${deliverydate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${statime[0]}</t>
-    <phoneticPr fontId="30"/>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-    <phoneticPr fontId="30"/>
-  </si>
-  <si>
-    <t>　中国遼寧省大連市高新技術産業園区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>　中国遼寧省大連市高新技術産業園区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.deliveryfinshdate}</t>
+    <t>${completiondate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -851,11 +851,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1784,9 +1785,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1877,9 +1875,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,9 +1894,6 @@
     <xf numFmtId="178" fontId="25" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1935,9 +1927,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2235,6 +2233,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2288,12 +2292,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2383,12 +2381,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2404,7 +2405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2694,7 +2695,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2706,377 +2707,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-    </row>
-    <row r="4" spans="1:5" s="72" customFormat="1">
-      <c r="A4" s="91" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+    </row>
+    <row r="4" spans="1:5" s="71" customFormat="1">
+      <c r="A4" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
-    </row>
-    <row r="6" spans="1:5" s="72" customFormat="1">
-      <c r="A6" s="93" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="1:5" s="71" customFormat="1">
+      <c r="A6" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
-    </row>
-    <row r="7" spans="1:5" s="72" customFormat="1">
-      <c r="A7" s="93" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+    </row>
+    <row r="7" spans="1:5" s="71" customFormat="1">
+      <c r="A7" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-    </row>
-    <row r="8" spans="1:5" s="72" customFormat="1">
-      <c r="A8" s="91" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+    </row>
+    <row r="8" spans="1:5" s="71" customFormat="1">
+      <c r="A8" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="79" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="80" t="s">
+      <c r="B16" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="83"/>
+      <c r="C19" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C20" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="77" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C23" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="85" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C24" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="73" t="str">
+      <c r="B25" s="72" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="B26" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="15">
+      <c r="B27" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5" ht="13.5">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" ht="13.5">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row r="32" spans="1:5" ht="13.5">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" ht="13.5">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" ht="13.5">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" ht="13.5">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" ht="13.5">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" ht="13.5">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" ht="13.5">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1" ht="13.5">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1" ht="13.5">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1" ht="13.5">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1" ht="13.5">
       <c r="A42" s="2"/>
     </row>
   </sheetData>
@@ -3113,35 +3114,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="94"/>
-      <c r="B1" s="168" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="173" t="str">
+      <c r="C3" s="172" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3155,203 +3156,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170" t="str">
+      <c r="C5" s="168"/>
+      <c r="D5" s="169" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="171"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="176" t="str">
+      <c r="C6" s="134"/>
+      <c r="D6" s="175" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="178"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="111" t="str">
+      <c r="C7" s="134"/>
+      <c r="D7" s="110" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="113" t="str">
+      <c r="H7" s="112" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="120" t="str">
+      <c r="C8" s="134"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="166"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="154" t="str">
+      <c r="C9" s="128"/>
+      <c r="D9" s="153" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="156"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="161"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3365,91 +3366,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="163" t="str">
+      <c r="C21" s="128"/>
+      <c r="D21" s="162" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136" t="str">
+      <c r="C27" s="134"/>
+      <c r="D27" s="135" t="str">
         <f>記入!B17</f>
-        <v>${na.deliverydate}</v>
-      </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="139"/>
+        <v>${deliverydate}</v>
+      </c>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="138"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3463,112 +3464,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="140" t="s">
+      <c r="B29" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="118" t="s">
+      <c r="C29" s="140"/>
+      <c r="D29" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="120" t="str">
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="130"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="118" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="120" t="s">
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="143"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="146" t="s">
+      <c r="B31" s="142"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="118" t="s">
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120" t="str">
+      <c r="H31" s="118"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="143"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="118" t="s">
+      <c r="B32" s="142"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="153" t="str">
+      <c r="H32" s="118"/>
+      <c r="I32" s="152" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="118" t="s">
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120" t="s">
+      <c r="H33" s="118"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="125" t="s">
+      <c r="C35" s="125"/>
+      <c r="D35" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="125"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3616,44 +3617,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="128" t="s">
+      <c r="E45" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="129"/>
-      <c r="G45" s="128" t="s">
+      <c r="F45" s="128"/>
+      <c r="G45" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="129"/>
+      <c r="H45" s="128"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="130"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="131"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="132"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="132"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="108"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="109"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3729,8 +3730,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3748,29 +3749,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="95"/>
-      <c r="B1" s="183" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3781,8 +3782,8 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>146</v>
+      <c r="H3" s="249" t="s">
+        <v>143</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -3797,16 +3798,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="218" t="str">
+      <c r="B5" s="199" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3816,12 +3817,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="F6" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3829,7 +3830,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3842,12 +3843,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3896,160 +3897,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="186"/>
+      <c r="D13" s="187" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="189"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="191"/>
+      <c r="D14" s="192" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
-        <v>${na.deliverydate}</v>
-      </c>
-      <c r="E15" s="199" t="s">
+        <v>${deliverydate}</v>
+      </c>
+      <c r="E15" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="F15" s="191"/>
+      <c r="G15" s="195" t="str">
         <f>記入!B18</f>
-        <v>${na.completiondate}</v>
-      </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+        <v>${completiondate}</v>
+      </c>
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="178" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4091,14 +4092,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="216" t="str">
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4106,11 +4107,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
+      <c r="F28" s="217"/>
+      <c r="G28" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="192"/>
+      <c r="H28" s="191"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4118,7 +4119,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4132,9 +4133,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4142,9 +4143,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4152,9 +4153,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4187,7 +4188,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4255,8 +4256,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4274,29 +4275,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="96"/>
-      <c r="B1" s="183" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4307,8 +4308,8 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>146</v>
+      <c r="H3" s="249" t="s">
+        <v>143</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -4323,16 +4324,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="218" t="str">
+      <c r="B5" s="199" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4342,12 +4343,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="F6" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4355,7 +4356,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4368,12 +4369,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4422,160 +4423,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="186"/>
+      <c r="D13" s="187" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="189"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="191"/>
+      <c r="D14" s="192" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="194"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="191"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
-        <v>${na.deliverydate}</v>
-      </c>
-      <c r="E15" s="199" t="s">
+        <v>${deliverydate}</v>
+      </c>
+      <c r="E15" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="F15" s="191"/>
+      <c r="G15" s="195" t="str">
         <f>記入!B18</f>
-        <v>${na.completiondate}</v>
-      </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+        <v>${completiondate}</v>
+      </c>
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="194"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="178" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="198" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4617,14 +4618,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="199" t="str">
+      <c r="G27" s="198" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="192"/>
+      <c r="H27" s="191"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4632,11 +4633,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
+      <c r="F28" s="217"/>
+      <c r="G28" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="192"/>
+      <c r="H28" s="191"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4644,7 +4645,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4658,9 +4659,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4668,9 +4669,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4678,9 +4679,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4713,7 +4714,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4726,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4787,362 +4788,362 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="46"/>
-    <col min="3" max="3" width="6" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="2.5703125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="45"/>
+    <col min="3" max="3" width="6" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="224" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="229" t="str">
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="228" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="226" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="81" t="str">
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="79" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="227" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="227"/>
-      <c r="I5" s="81" t="str">
+      <c r="H5" s="226"/>
+      <c r="I5" s="79" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="227" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="226" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="227"/>
-      <c r="I6" s="82" t="str">
+      <c r="H6" s="226"/>
+      <c r="I6" s="80" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="83" t="str">
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="81" t="str">
         <f>記入!B16</f>
-        <v>${na.deliveryfinshdate}</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+        <v>${deliveryfinshdate}</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="49" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="221" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="222"/>
+      <c r="I10" s="221"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="223" t="str">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="222" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="84" t="e">
+      <c r="H12" s="69"/>
+      <c r="I12" s="82" t="e">
         <f>I19-I13</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="47"/>
+      <c r="G13" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="84">
+      <c r="H13" s="69"/>
+      <c r="I13" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="48"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="2:9" ht="72.75" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="48"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B17" s="48"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="48"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="48"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="48"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="69" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="84" t="str">
+      <c r="H19" s="69"/>
+      <c r="I19" s="82" t="str">
         <f>記入!B20</f>
         <v>${na.claimamount}</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="48"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="84"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="48"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="48"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="2:9" ht="42.75" customHeight="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5192,55 +5193,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="241"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="244" t="str">
+      <c r="C5" s="243" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="245"/>
+      <c r="D5" s="244"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="247"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="238" t="str">
+      <c r="C7" s="237" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="239"/>
+      <c r="D7" s="238"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="232" t="str">
+      <c r="C9" s="231" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="233"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5250,40 +5251,40 @@
       </c>
       <c r="D10" s="12" t="str">
         <f>記入!B17</f>
-        <v>${na.deliverydate}</v>
+        <v>${deliverydate}</v>
       </c>
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="234" t="s">
+      <c r="C11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="235"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="236" t="str">
+      <c r="C12" s="235" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="237"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="248" t="str">
+      <c r="C13" s="247" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="249"/>
+      <c r="D13" s="248"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="231"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -851,12 +851,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1686,7 +1685,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1779,12 +1778,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1958,66 +1951,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2030,47 +2083,23 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,86 +2118,116 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2176,12 +2235,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,93 +2259,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2322,6 +2294,36 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2351,38 +2353,32 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2695,7 +2691,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2707,333 +2703,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-    </row>
-    <row r="4" spans="1:5" s="71" customFormat="1">
-      <c r="A4" s="88" t="s">
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+    </row>
+    <row r="4" spans="1:5" s="69" customFormat="1">
+      <c r="A4" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-    </row>
-    <row r="6" spans="1:5" s="71" customFormat="1">
-      <c r="A6" s="90" t="s">
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+    </row>
+    <row r="6" spans="1:5" s="69" customFormat="1">
+      <c r="A6" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-    </row>
-    <row r="7" spans="1:5" s="71" customFormat="1">
-      <c r="A7" s="90" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+    </row>
+    <row r="7" spans="1:5" s="69" customFormat="1">
+      <c r="A7" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="77" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-    </row>
-    <row r="8" spans="1:5" s="71" customFormat="1">
-      <c r="A8" s="88" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+    </row>
+    <row r="8" spans="1:5" s="69" customFormat="1">
+      <c r="A8" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="77" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="77" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="72" t="str">
+      <c r="B25" s="70" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
     </row>
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
@@ -3098,8 +3094,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3114,35 +3110,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="91"/>
-      <c r="B1" s="167" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="172" t="str">
+      <c r="C3" s="108" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="174"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3156,203 +3152,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="C5" s="104"/>
+      <c r="D5" s="105" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="171"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="175" t="str">
+      <c r="C6" s="111"/>
+      <c r="D6" s="112" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="110" t="str">
+      <c r="C7" s="111"/>
+      <c r="D7" s="169" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="241" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="112" t="str">
+      <c r="H7" s="170" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="111"/>
+      <c r="D8" s="115" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="117" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="153" t="str">
+      <c r="C9" s="121"/>
+      <c r="D9" s="126" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3366,91 +3362,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="162" t="str">
+      <c r="C21" s="121"/>
+      <c r="D21" s="135" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="140"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135" t="str">
+      <c r="C27" s="111"/>
+      <c r="D27" s="146" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="138"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="243"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3464,112 +3460,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="117" t="s">
+      <c r="C29" s="147"/>
+      <c r="D29" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119" t="str">
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="115" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="117"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="129"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="117" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="117"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="142"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="145" t="s">
+      <c r="B31" s="149"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="117" t="s">
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="119"/>
+      <c r="I31" s="115" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="142"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="117" t="s">
+      <c r="B32" s="149"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="152" t="str">
+      <c r="H32" s="119"/>
+      <c r="I32" s="164" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="117" t="s">
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="119"/>
+      <c r="I33" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="117"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="124" t="s">
+      <c r="C35" s="143"/>
+      <c r="D35" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="125"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="143"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3617,44 +3613,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="127" t="s">
+      <c r="E45" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="127" t="s">
+      <c r="F45" s="121"/>
+      <c r="G45" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="128"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="130"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="123"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="131"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="132"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="125"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="104"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="105"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="166"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="106"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="168"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="109"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="163"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3662,25 +3658,18 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3693,18 +3682,25 @@
     <mergeCell ref="D31:F33"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3731,7 +3727,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3749,29 +3745,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="182" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3782,7 +3778,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="244" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="16"/>
@@ -3798,16 +3794,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="199" t="str">
+      <c r="B5" s="208" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3817,12 +3813,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3843,12 +3839,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3897,160 +3893,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187" t="str">
+      <c r="C13" s="204"/>
+      <c r="D13" s="205" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="207"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192" t="str">
+      <c r="C14" s="174"/>
+      <c r="D14" s="181" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="174"/>
+      <c r="D15" s="245" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E15" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="195" t="str">
+      <c r="F15" s="174"/>
+      <c r="G15" s="246" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192" t="s">
+      <c r="F16" s="174"/>
+      <c r="G16" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="198" t="s">
+      <c r="D17" s="174"/>
+      <c r="E17" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="174"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="187"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="178" t="str">
+      <c r="B18" s="185"/>
+      <c r="C18" s="198" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="198" t="s">
+      <c r="D18" s="199"/>
+      <c r="E18" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="191"/>
+      <c r="F18" s="174"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4092,14 +4088,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="172" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="172"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4107,11 +4103,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="198" t="s">
+      <c r="F28" s="172"/>
+      <c r="G28" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="191"/>
+      <c r="H28" s="174"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4119,7 +4115,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="172"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4133,9 +4129,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4143,9 +4139,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4153,9 +4149,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4205,11 +4201,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4226,22 +4233,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4275,29 +4271,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="182" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4308,7 +4304,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="244" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="16"/>
@@ -4324,16 +4320,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="199" t="str">
+      <c r="B5" s="208" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4343,12 +4339,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4369,12 +4365,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4423,160 +4419,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187" t="str">
+      <c r="C13" s="204"/>
+      <c r="D13" s="205" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="207"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192" t="str">
+      <c r="C14" s="174"/>
+      <c r="D14" s="181" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="174"/>
+      <c r="D15" s="245" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E15" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="195" t="str">
+      <c r="F15" s="174"/>
+      <c r="G15" s="246" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192" t="s">
+      <c r="F16" s="174"/>
+      <c r="G16" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="198" t="s">
+      <c r="D17" s="174"/>
+      <c r="E17" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="174"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="187"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="178" t="str">
+      <c r="B18" s="185"/>
+      <c r="C18" s="198" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="198" t="s">
+      <c r="D18" s="199"/>
+      <c r="E18" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="191"/>
+      <c r="F18" s="174"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4618,14 +4614,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="198" t="str">
+      <c r="G27" s="173" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="191"/>
+      <c r="H27" s="174"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4633,11 +4629,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="198" t="s">
+      <c r="F28" s="172"/>
+      <c r="G28" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="191"/>
+      <c r="H28" s="174"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4645,7 +4641,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="172"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4659,9 +4655,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4669,9 +4665,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4679,9 +4675,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4731,6 +4727,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4747,27 +4764,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4788,362 +4784,362 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="45"/>
-    <col min="3" max="3" width="6" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="2.5703125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="43"/>
+    <col min="3" max="3" width="6" style="43" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="228" t="str">
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="79" t="str">
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="77" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="226" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="226"/>
-      <c r="I5" s="79" t="str">
+      <c r="H5" s="217"/>
+      <c r="I5" s="77" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="217" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="226" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="226"/>
-      <c r="I6" s="80" t="str">
+      <c r="H6" s="217"/>
+      <c r="I6" s="78" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="81" t="str">
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="79" t="str">
         <f>記入!B16</f>
         <v>${deliveryfinshdate}</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="220" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="221"/>
+      <c r="I10" s="212"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="222" t="str">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="213" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="82" t="e">
+      <c r="H12" s="67"/>
+      <c r="I12" s="80" t="e">
         <f>I19-I13</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="68" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="82">
+      <c r="H13" s="67"/>
+      <c r="I13" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="47"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="2:9" ht="72.75" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="47"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="47"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="69" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="47"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="47"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="68" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="82" t="str">
+      <c r="H19" s="67"/>
+      <c r="I19" s="80" t="str">
         <f>記入!B20</f>
         <v>${na.claimamount}</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="47"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="82"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="47"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="47"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="2:9" ht="42.75" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5193,55 +5189,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="240"/>
+      <c r="D3" s="221"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="242"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="223"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="243" t="str">
+      <c r="C5" s="224" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="244"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="237" t="str">
+      <c r="C7" s="238" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="231" t="str">
+      <c r="C9" s="232" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5257,34 +5253,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="234"/>
+      <c r="D11" s="235"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="235" t="str">
+      <c r="C12" s="236" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="236"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="247" t="str">
+      <c r="C13" s="228" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="248"/>
+      <c r="D13" s="229"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="231"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5310,16 +5306,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1686,7 +1686,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1779,9 +1779,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1927,13 +1924,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1976,18 +1966,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2050,18 +2028,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,15 +2187,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2381,15 +2338,55 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2405,7 +2402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2694,8 +2691,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2707,377 +2704,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="D1" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-    </row>
-    <row r="4" spans="1:5" s="71" customFormat="1">
-      <c r="A4" s="88" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+    </row>
+    <row r="4" spans="1:5" s="70" customFormat="1">
+      <c r="A4" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-    </row>
-    <row r="6" spans="1:5" s="71" customFormat="1">
-      <c r="A6" s="90" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+    </row>
+    <row r="6" spans="1:5" s="70" customFormat="1">
+      <c r="A6" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-    </row>
-    <row r="7" spans="1:5" s="71" customFormat="1">
-      <c r="A7" s="90" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+    </row>
+    <row r="7" spans="1:5" s="70" customFormat="1">
+      <c r="A7" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="77" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-    </row>
-    <row r="8" spans="1:5" s="71" customFormat="1">
-      <c r="A8" s="88" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+    </row>
+    <row r="8" spans="1:5" s="70" customFormat="1">
+      <c r="A8" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="235" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="236" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="236" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="77" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="77" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="72" t="str">
+      <c r="B25" s="71" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5">
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+    </row>
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="13.5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="13.5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="13.5">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="13.5">
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="13.5">
+    <row r="35" spans="1:1" ht="15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="13.5">
+    <row r="36" spans="1:1" ht="15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="13.5">
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="13.5">
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="13.5">
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="13.5">
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="13.5">
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="13.5">
+    <row r="42" spans="1:1" ht="15">
       <c r="A42" s="2"/>
     </row>
   </sheetData>
@@ -3098,8 +3095,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3114,35 +3111,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="91"/>
-      <c r="B1" s="167" t="s">
+      <c r="A1" s="90"/>
+      <c r="B1" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="172" t="str">
+      <c r="C3" s="161" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="174"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3156,203 +3153,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="C5" s="157"/>
+      <c r="D5" s="158" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="171"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="160"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="175" t="str">
+      <c r="C6" s="127"/>
+      <c r="D6" s="164" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="110" t="str">
+      <c r="C7" s="127"/>
+      <c r="D7" s="237" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="112" t="str">
+      <c r="H7" s="239" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="127"/>
+      <c r="D8" s="112" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="117" t="s">
+      <c r="E8" s="155"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="111"/>
+      <c r="I8" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="153" t="str">
+      <c r="C9" s="121"/>
+      <c r="D9" s="142" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="144"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="161"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3366,91 +3363,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="162" t="str">
+      <c r="C21" s="121"/>
+      <c r="D21" s="151" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135" t="str">
+      <c r="C27" s="127"/>
+      <c r="D27" s="241" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="138"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="243"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3464,112 +3461,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="117" t="s">
+      <c r="C29" s="129"/>
+      <c r="D29" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119" t="str">
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="112" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="113"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="129"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="117" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="113"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="142"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="145" t="s">
+      <c r="B31" s="131"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="117" t="s">
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="111"/>
+      <c r="I31" s="112" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="113"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="142"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="117" t="s">
+      <c r="B32" s="131"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="152" t="str">
+      <c r="H32" s="111"/>
+      <c r="I32" s="141" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="113"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="117" t="s">
+      <c r="B33" s="132"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="111"/>
+      <c r="I33" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="113"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="124" t="s">
+      <c r="C35" s="118"/>
+      <c r="D35" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="125"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="118"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3617,44 +3614,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="127" t="s">
+      <c r="E45" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="127" t="s">
+      <c r="F45" s="121"/>
+      <c r="G45" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="128"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="130"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="123"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="131"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="132"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="125"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="104"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="105"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="102"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="106"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="104"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="109"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3730,8 +3727,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3749,29 +3746,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="182" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3782,7 +3779,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="244" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="16"/>
@@ -3798,16 +3795,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="199" t="str">
+      <c r="B5" s="185" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3817,12 +3814,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3843,12 +3840,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3897,160 +3894,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187" t="str">
+      <c r="C13" s="175"/>
+      <c r="D13" s="176" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192" t="str">
+      <c r="C14" s="180"/>
+      <c r="D14" s="181" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="180"/>
+      <c r="D15" s="245" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E15" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="195" t="str">
+      <c r="F15" s="180"/>
+      <c r="G15" s="246" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192" t="s">
+      <c r="F16" s="180"/>
+      <c r="G16" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="198" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="192"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="178" t="str">
+      <c r="B18" s="190"/>
+      <c r="C18" s="167" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="198" t="s">
+      <c r="D18" s="168"/>
+      <c r="E18" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="191"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="194"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="200"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="194"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="200"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="194"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="200"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4092,14 +4089,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="203" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4107,11 +4104,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="198" t="s">
+      <c r="F28" s="203"/>
+      <c r="G28" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="191"/>
+      <c r="H28" s="180"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4119,7 +4116,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="203"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4133,9 +4130,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4143,9 +4140,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4153,9 +4150,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4188,7 +4185,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4200,7 +4197,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4256,8 +4253,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4275,29 +4272,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="182" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4308,7 +4305,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="244" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="16"/>
@@ -4324,16 +4321,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="199" t="str">
+      <c r="B5" s="185" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4343,12 +4340,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4369,12 +4366,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4423,160 +4420,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187" t="str">
+      <c r="C13" s="175"/>
+      <c r="D13" s="176" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="189"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192" t="str">
+      <c r="C14" s="180"/>
+      <c r="D14" s="181" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="180"/>
+      <c r="D15" s="245" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="198" t="s">
+      <c r="E15" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="195" t="str">
+      <c r="F15" s="180"/>
+      <c r="G15" s="246" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="197"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="198" t="s">
+      <c r="E16" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192" t="s">
+      <c r="F16" s="180"/>
+      <c r="G16" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="198" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="192"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="178" t="str">
+      <c r="B18" s="190"/>
+      <c r="C18" s="167" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="198" t="s">
+      <c r="D18" s="168"/>
+      <c r="E18" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="191"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="194"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="200"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="194"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="200"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="194"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="200"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4618,14 +4615,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="198" t="str">
+      <c r="G27" s="184" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="191"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4633,11 +4630,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="198" t="s">
+      <c r="F28" s="203"/>
+      <c r="G28" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="191"/>
+      <c r="H28" s="180"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4645,7 +4642,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="203"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4659,9 +4656,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4669,9 +4666,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4679,9 +4676,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4714,7 +4711,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4726,7 +4723,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4788,362 +4785,362 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="45"/>
-    <col min="3" max="3" width="6" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="2.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="6" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="228" t="str">
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="79" t="str">
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="78" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="226" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="226"/>
-      <c r="I5" s="79" t="str">
+      <c r="H5" s="212"/>
+      <c r="I5" s="78" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="226" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="226"/>
-      <c r="I6" s="80" t="str">
+      <c r="H6" s="212"/>
+      <c r="I6" s="79" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="81" t="str">
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="80" t="str">
         <f>記入!B16</f>
         <v>${deliveryfinshdate}</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="48" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="57"/>
+      <c r="G9" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="220" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="221"/>
+      <c r="I10" s="207"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="222" t="str">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="208" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="82" t="e">
+      <c r="H12" s="68"/>
+      <c r="I12" s="81" t="e">
         <f>I19-I13</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="68" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="82">
+      <c r="H13" s="68"/>
+      <c r="I13" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="47"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:9" ht="72.75" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="47"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="47"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="69" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="47"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="47"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="68" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="82" t="str">
+      <c r="H19" s="68"/>
+      <c r="I19" s="81" t="str">
         <f>記入!B20</f>
         <v>${na.claimamount}</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="47"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="82"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="47"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="47"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="47"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" ht="42.75" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5193,55 +5190,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="240"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="242"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="228"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="243" t="str">
+      <c r="C5" s="229" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="244"/>
+      <c r="D5" s="230"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="237" t="str">
+      <c r="C7" s="223" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="224"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="224"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="231" t="str">
+      <c r="C9" s="217" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5257,34 +5254,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="234"/>
+      <c r="D11" s="220"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="235" t="str">
+      <c r="C12" s="221" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="236"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="247" t="str">
+      <c r="C13" s="233" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="248"/>
+      <c r="D13" s="234"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="216"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -851,12 +851,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1948,54 +1947,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,36 +2078,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2055,86 +2111,107 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2142,12 +2219,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,84 +2243,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2279,6 +2278,36 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2308,85 +2337,55 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2402,7 +2401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2691,8 +2690,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3032,49 +3031,49 @@
       <c r="D27" s="99"/>
       <c r="E27" s="100"/>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5" ht="13.5">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" ht="13.5">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row r="32" spans="1:5" ht="13.5">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" ht="13.5">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" ht="13.5">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" ht="13.5">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" ht="13.5">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" ht="13.5">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" ht="13.5">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1" ht="13.5">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1" ht="13.5">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1" ht="13.5">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1" ht="13.5">
       <c r="A42" s="2"/>
     </row>
   </sheetData>
@@ -3095,7 +3094,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:J27"/>
     </sheetView>
   </sheetViews>
@@ -3112,34 +3111,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="90"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="161" t="str">
+      <c r="C3" s="107" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3153,42 +3152,42 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158" t="str">
+      <c r="C5" s="103"/>
+      <c r="D5" s="104" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="160"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="164" t="str">
+      <c r="C6" s="110"/>
+      <c r="D6" s="111" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="127"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="237" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
@@ -3206,150 +3205,150 @@
       <c r="J7" s="240"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="112" t="str">
+      <c r="C8" s="110"/>
+      <c r="D8" s="114" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="113"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="142" t="str">
+      <c r="C9" s="120"/>
+      <c r="D9" s="125" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="144"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3363,81 +3362,81 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="151" t="str">
+      <c r="C21" s="120"/>
+      <c r="D21" s="134" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="136"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="127"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="241" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
@@ -3461,112 +3460,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="129"/>
-      <c r="D29" s="110" t="s">
+      <c r="C29" s="145"/>
+      <c r="D29" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="112" t="str">
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="114" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="113"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="122"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="110" t="s">
+      <c r="B30" s="121"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="112" t="s">
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="113"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="131"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="134" t="s">
+      <c r="B31" s="147"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="110" t="s">
+      <c r="E31" s="154"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112" t="str">
+      <c r="H31" s="118"/>
+      <c r="I31" s="114" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="113"/>
+      <c r="J31" s="116"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="131"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="110" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="111"/>
-      <c r="I32" s="141" t="str">
+      <c r="H32" s="118"/>
+      <c r="I32" s="162" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="113"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="132"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="110" t="s">
+      <c r="B33" s="148"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112" t="s">
+      <c r="H33" s="118"/>
+      <c r="I33" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="113"/>
+      <c r="J33" s="116"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="117" t="s">
+      <c r="C35" s="142"/>
+      <c r="D35" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="118"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="142"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3614,44 +3613,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="120" t="s">
+      <c r="E45" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="121"/>
-      <c r="G45" s="120" t="s">
+      <c r="F45" s="120"/>
+      <c r="G45" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="121"/>
+      <c r="H45" s="120"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="122"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="123"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="122"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="124"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="125"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="124"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="101"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="102"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="164"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="103"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="166"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="105"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="161"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3659,25 +3658,18 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3690,18 +3682,25 @@
     <mergeCell ref="D31:F33"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3727,7 +3726,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
@@ -3747,28 +3746,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="91"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3795,16 +3794,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="185" t="str">
+      <c r="B5" s="203" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3814,12 +3813,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="173" t="s">
+      <c r="F6" s="197" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3840,12 +3839,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3894,48 +3893,48 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176" t="str">
+      <c r="C13" s="199"/>
+      <c r="D13" s="200" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="181" t="str">
+      <c r="C14" s="169"/>
+      <c r="D14" s="176" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="183"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="180"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="245" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="184" t="s">
+      <c r="E15" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="180"/>
+      <c r="F15" s="169"/>
       <c r="G15" s="246" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
@@ -3944,110 +3943,110 @@
       <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="180"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181" t="s">
+      <c r="F16" s="169"/>
+      <c r="G16" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="182"/>
-      <c r="I16" s="183"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="184" t="s">
+      <c r="D17" s="169"/>
+      <c r="E17" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="180"/>
+      <c r="F17" s="169"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="184" t="s">
+      <c r="H17" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="192"/>
+      <c r="I17" s="182"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="190"/>
-      <c r="C18" s="167" t="str">
+      <c r="B18" s="180"/>
+      <c r="C18" s="193" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="180"/>
+      <c r="F18" s="169"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="188"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="194"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="200"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="190"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="194"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="184"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="190"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="190"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="184"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="190"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="190"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="194"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="190"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="191"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="196"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="186"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="202"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4089,14 +4088,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="203" t="s">
+      <c r="F27" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="203" t="str">
+      <c r="G27" s="167" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="203"/>
+      <c r="H27" s="167"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4104,11 +4103,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="184" t="s">
+      <c r="F28" s="167"/>
+      <c r="G28" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="180"/>
+      <c r="H28" s="169"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4116,7 +4115,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="203"/>
+      <c r="F29" s="167"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4130,9 +4129,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4140,9 +4139,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4150,9 +4149,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4185,7 +4184,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4197,16 +4196,27 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4223,22 +4233,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4253,7 +4252,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
@@ -4273,28 +4272,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="92"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4321,16 +4320,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="185" t="str">
+      <c r="B5" s="203" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4340,12 +4339,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="173" t="s">
+      <c r="F6" s="197" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4366,12 +4365,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4420,48 +4419,48 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176" t="str">
+      <c r="C13" s="199"/>
+      <c r="D13" s="200" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="202"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="181" t="str">
+      <c r="C14" s="169"/>
+      <c r="D14" s="176" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="183"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="180"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="245" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="184" t="s">
+      <c r="E15" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="180"/>
+      <c r="F15" s="169"/>
       <c r="G15" s="246" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
@@ -4470,110 +4469,110 @@
       <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="180"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181" t="s">
+      <c r="F16" s="169"/>
+      <c r="G16" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="182"/>
-      <c r="I16" s="183"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="184" t="s">
+      <c r="D17" s="169"/>
+      <c r="E17" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="180"/>
+      <c r="F17" s="169"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="184" t="s">
+      <c r="H17" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="192"/>
+      <c r="I17" s="182"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="190"/>
-      <c r="C18" s="167" t="str">
+      <c r="B18" s="180"/>
+      <c r="C18" s="193" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="180"/>
+      <c r="F18" s="169"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="188"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="194"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="200"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="190"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="194"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="184"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="190"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="190"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="184"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="190"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="190"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="194"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="190"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="191"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="196"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="186"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="202"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4615,14 +4614,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="203" t="s">
+      <c r="F27" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="184" t="str">
+      <c r="G27" s="168" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="169"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4630,11 +4629,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="184" t="s">
+      <c r="F28" s="167"/>
+      <c r="G28" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="180"/>
+      <c r="H28" s="169"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4642,7 +4641,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="203"/>
+      <c r="F29" s="167"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4656,9 +4655,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4666,9 +4665,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4676,9 +4675,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4711,7 +4710,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4723,11 +4722,32 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4744,27 +4764,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5190,55 +5189,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="226"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="218"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="229" t="str">
+      <c r="C5" s="219" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="230"/>
+      <c r="D5" s="220"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="223" t="str">
+      <c r="C7" s="233" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="224"/>
+      <c r="D7" s="234"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="224"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="234"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="217" t="str">
+      <c r="C9" s="227" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="218"/>
+      <c r="D9" s="228"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -5254,34 +5253,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="220"/>
+      <c r="D11" s="230"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="221" t="str">
+      <c r="C12" s="231" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="233" t="str">
+      <c r="C13" s="223" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="234"/>
+      <c r="D13" s="224"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="216"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -5307,16 +5306,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -2,38 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_松下PFANS_外网\S06 From Client\合同管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
     <sheet name="出荷判定書" sheetId="3" r:id="rId2"/>
-    <sheet name="納品明細書兼物品受領書（正）" sheetId="5" r:id="rId3"/>
-    <sheet name="納品明細書兼物品受領書（副）" sheetId="7" r:id="rId4"/>
-    <sheet name="INVOICE" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="CDラベル" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="納品明細書兼物品受領書" sheetId="5" r:id="rId3"/>
+    <sheet name="INVOICE" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="CDラベル" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">CDラベル!$A$1:$F$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">INVOICE!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">CDラベル!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">INVOICE!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">出荷判定書!$A$1:$K$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">納品明細書兼物品受領書!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>DONG</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -42,9 +40,22 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <rFont val="MS PGothic"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="H49")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H49")</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -55,7 +66,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>DONG</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -65,52 +76,20 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K50")</t>
+          <t>Administrator:</t>
         </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DONG</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J36")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DONG</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-          </rPr>
-          <t>jx:area(lastCell="J36")</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -119,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="141">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -296,6 +275,9 @@
   </si>
   <si>
     <t>納品物</t>
+  </si>
+  <si>
+    <t>①${na.pjnameenglish}の開発一式</t>
   </si>
   <si>
     <t>出荷判定</t>
@@ -336,7 +318,7 @@
 責任者</t>
   </si>
   <si>
-    <t>納品明細書（兼）物品受領書（正）</t>
+    <t>納品明細書（兼）物品受領書</t>
   </si>
   <si>
     <t>（本書は物件の納入日に依頼元へご提出下さい。）</t>
@@ -433,13 +415,7 @@
     <t>　　 担当</t>
   </si>
   <si>
-    <t>ドメイン側保管</t>
-  </si>
-  <si>
-    <t>納品明細書（兼）物品受領書（副）</t>
-  </si>
-  <si>
-    <t>PSDCD側保管</t>
+    <t>納品明細書（兼）物品受領書はPDFがオリジナルデータであり、紙は送付しません。</t>
   </si>
   <si>
     <t>发   票</t>
@@ -542,6 +518,8 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">销货单位 THE SELLER：  </t>
     </r>
@@ -550,6 +528,8 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
     </r>
@@ -562,10 +542,6 @@
   </si>
   <si>
     <t>内容物</t>
-  </si>
-  <si>
-    <t>①${na.pjnameenglish}の開発一式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,9 +549,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="34">
@@ -622,27 +598,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
@@ -686,11 +672,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="HGP創英角ｺﾞｼｯｸUB"/>
       <charset val="128"/>
     </font>
@@ -702,6 +683,11 @@
     <font>
       <sz val="12"/>
       <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
@@ -734,7 +720,22 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -745,19 +746,6 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="HGP創英角ｺﾞｼｯｸUB"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1355,10 +1343,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1368,7 +1356,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1384,7 +1372,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,11 +1447,11 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1538,23 +1526,20 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1630,71 +1615,74 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1702,19 +1690,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1723,7 +1711,7 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1732,7 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,9 +1732,54 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1756,31 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1788,52 +1797,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1895,6 +1883,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2044,18 +2035,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2357,400 +2342,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="99"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="78" t="s">
+      <c r="E1" s="98"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-    </row>
-    <row r="4" spans="1:5" s="77" customFormat="1">
-      <c r="A4" s="78" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+    </row>
+    <row r="4" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="78" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-    </row>
-    <row r="6" spans="1:5" s="77" customFormat="1">
-      <c r="A6" s="84" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+    </row>
+    <row r="6" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-    </row>
-    <row r="7" spans="1:5" s="77" customFormat="1">
-      <c r="A7" s="84" t="s">
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+    </row>
+    <row r="7" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-    </row>
-    <row r="8" spans="1:5" s="77" customFormat="1">
-      <c r="A8" s="78" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+    </row>
+    <row r="8" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="81" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="84" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A10" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="84" t="s">
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A11" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="78" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="78" t="s">
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="78" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="78" t="s">
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="78" t="s">
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A16" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="78" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="78" t="s">
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A18" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="78" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="78" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="78" t="s">
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="78" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="83" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="81" t="s">
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="81" t="s">
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="81" t="s">
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="79" t="str">
+      <c r="B25" s="78" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="81" t="s">
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="81" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5">
-      <c r="A28" s="96"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.5">
-      <c r="A29" s="96"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.5">
-      <c r="A30" s="96"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.5">
-      <c r="A31" s="96"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.5">
-      <c r="A32" s="96"/>
-    </row>
-    <row r="33" spans="1:1" ht="13.5">
-      <c r="A33" s="96"/>
-    </row>
-    <row r="34" spans="1:1" ht="13.5">
-      <c r="A34" s="96"/>
-    </row>
-    <row r="35" spans="1:1" ht="13.5">
-      <c r="A35" s="96"/>
-    </row>
-    <row r="36" spans="1:1" ht="13.5">
-      <c r="A36" s="96"/>
-    </row>
-    <row r="37" spans="1:1" ht="13.5">
-      <c r="A37" s="96"/>
-    </row>
-    <row r="38" spans="1:1" ht="13.5">
-      <c r="A38" s="96"/>
-    </row>
-    <row r="39" spans="1:1" ht="13.5">
-      <c r="A39" s="96"/>
-    </row>
-    <row r="40" spans="1:1" ht="13.5">
-      <c r="A40" s="96"/>
-    </row>
-    <row r="41" spans="1:1" ht="13.5">
-      <c r="A41" s="96"/>
-    </row>
-    <row r="42" spans="1:1" ht="13.5">
-      <c r="A42" s="96"/>
-    </row>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A28" s="95"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A29" s="95"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A30" s="95"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A31" s="95"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A32" s="95"/>
+    </row>
+    <row r="33" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A33" s="95"/>
+    </row>
+    <row r="34" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A34" s="95"/>
+    </row>
+    <row r="35" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A35" s="95"/>
+    </row>
+    <row r="36" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A36" s="95"/>
+    </row>
+    <row r="37" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A37" s="95"/>
+    </row>
+    <row r="38" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A38" s="95"/>
+    </row>
+    <row r="39" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A39" s="95"/>
+    </row>
+    <row r="40" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A40" s="95"/>
+    </row>
+    <row r="41" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A41" s="95"/>
+    </row>
+    <row r="42" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A42" s="95"/>
+    </row>
+    <row r="43" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E27"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2762,140 +2755,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:J21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="70" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="70"/>
-    <col min="8" max="8" width="14" style="70" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="70"/>
-    <col min="10" max="10" width="15.5703125" style="70" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="69" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="14" style="69" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="69" customWidth="1"/>
+    <col min="11" max="11" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="71"/>
-      <c r="B1" s="104" t="s">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
-    <row r="3" spans="1:10">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="105" t="str">
+      <c r="C3" s="104" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="108" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B5" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="108" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B6" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114" t="str">
+      <c r="C6" s="112"/>
+      <c r="D6" s="113" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="108" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B7" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="117" t="str">
-        <f>記入!B14</f>
-        <v>${statime[0]}</v>
-      </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="74" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="119" t="str">
-        <f>記入!B15</f>
-        <v>${statime[1]}</v>
-      </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="108" t="s">
+      <c r="H7" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B8" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="121" t="str">
+      <c r="C8" s="112"/>
+      <c r="D8" s="120" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="124"/>
+      <c r="I8" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="167" t="s">
         <v>50</v>
       </c>
@@ -2907,8 +2898,8 @@
       <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="150"/>
-      <c r="C10" s="151"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="170"/>
       <c r="E10" s="171"/>
       <c r="F10" s="171"/>
@@ -2918,8 +2909,8 @@
       <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="150"/>
-      <c r="C11" s="151"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="170"/>
       <c r="E11" s="171"/>
       <c r="F11" s="171"/>
@@ -2929,8 +2920,8 @@
       <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
       <c r="D12" s="170"/>
       <c r="E12" s="171"/>
       <c r="F12" s="171"/>
@@ -2940,8 +2931,8 @@
       <c r="J12" s="172"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="150"/>
-      <c r="C13" s="151"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
       <c r="D13" s="170"/>
       <c r="E13" s="171"/>
       <c r="F13" s="171"/>
@@ -2951,8 +2942,8 @@
       <c r="J13" s="172"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="170"/>
       <c r="E14" s="171"/>
       <c r="F14" s="171"/>
@@ -2962,8 +2953,8 @@
       <c r="J14" s="172"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
       <c r="D15" s="170"/>
       <c r="E15" s="171"/>
       <c r="F15" s="171"/>
@@ -2973,8 +2964,8 @@
       <c r="J15" s="172"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
       <c r="D16" s="170"/>
       <c r="E16" s="171"/>
       <c r="F16" s="171"/>
@@ -2984,8 +2975,8 @@
       <c r="J16" s="172"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="150"/>
-      <c r="C17" s="151"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="170"/>
       <c r="E17" s="171"/>
       <c r="F17" s="171"/>
@@ -2995,8 +2986,8 @@
       <c r="J17" s="172"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="170"/>
       <c r="E18" s="171"/>
       <c r="F18" s="171"/>
@@ -3006,8 +2997,8 @@
       <c r="J18" s="172"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="173"/>
       <c r="E19" s="174"/>
       <c r="F19" s="174"/>
@@ -3017,23 +3008,23 @@
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="246" t="s">
-        <v>142</v>
+      <c r="C21" s="152"/>
+      <c r="D21" s="125" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="126"/>
       <c r="F21" s="126"/>
@@ -3043,8 +3034,8 @@
       <c r="J21" s="127"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
       <c r="D22" s="128"/>
       <c r="E22" s="129"/>
       <c r="F22" s="129"/>
@@ -3054,8 +3045,8 @@
       <c r="J22" s="130"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
       <c r="D23" s="128"/>
       <c r="E23" s="129"/>
       <c r="F23" s="129"/>
@@ -3065,8 +3056,8 @@
       <c r="J23" s="130"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="150"/>
-      <c r="C24" s="151"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="131"/>
       <c r="E24" s="129"/>
       <c r="F24" s="129"/>
@@ -3076,8 +3067,8 @@
       <c r="J24" s="130"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
       <c r="D25" s="131"/>
       <c r="E25" s="129"/>
       <c r="F25" s="129"/>
@@ -3087,8 +3078,8 @@
       <c r="J25" s="130"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="128"/>
       <c r="E26" s="129"/>
       <c r="F26" s="129"/>
@@ -3097,133 +3088,132 @@
       <c r="I26" s="129"/>
       <c r="J26" s="130"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="108" t="s">
+    <row r="27" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B27" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="132" t="str">
-        <f>記入!B17</f>
-        <v>${deliverydate}</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133"/>
       <c r="J27" s="134"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="154" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="124" t="s">
+      <c r="B29" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="135"/>
       <c r="F29" s="135"/>
       <c r="G29" s="136"/>
       <c r="H29" s="137"/>
-      <c r="I29" s="121" t="str">
+      <c r="I29" s="120" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="123"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="150"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="124" t="s">
-        <v>60</v>
+      <c r="B30" s="153"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="123" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="135"/>
       <c r="F30" s="135"/>
       <c r="G30" s="136"/>
       <c r="H30" s="137"/>
-      <c r="I30" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="123"/>
+      <c r="I30" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="157"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="160" t="s">
+      <c r="B31" s="164"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="125"/>
-      <c r="I31" s="121" t="str">
+      <c r="E31" s="143"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="124"/>
+      <c r="I31" s="120" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="123"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="157"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="125"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="124"/>
       <c r="I32" s="138" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="123"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="158"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="124" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="125"/>
-      <c r="I33" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="123"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="124"/>
+      <c r="I33" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="129"/>
       <c r="E34" s="129"/>
       <c r="F34" s="129"/>
       <c r="G34" s="129"/>
       <c r="H34" s="129"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75">
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" customHeight="1">
       <c r="B35" s="139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="140"/>
       <c r="D35" s="139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" s="141"/>
       <c r="F35" s="141"/>
@@ -3233,21 +3223,21 @@
       <c r="J35" s="140"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B36" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="B36" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B37" s="76" t="s">
-        <v>68</v>
+      <c r="B37" s="75" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="13.5" customHeight="1"/>
@@ -3256,66 +3246,66 @@
     <row r="41" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="149"/>
-      <c r="G45" s="148" t="s">
+      <c r="E45" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="149"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="152"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="150"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="151"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="154"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="152"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="153"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="156"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="142"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="143"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="158"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="144"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="145"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="160"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="146"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="147"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="150"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3323,20 +3313,20 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
     <mergeCell ref="E48:F50"/>
     <mergeCell ref="G48:H50"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="B21:C26"/>
     <mergeCell ref="B29:C33"/>
-    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="D9:J19"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D31:F33"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="G31:H31"/>
@@ -3367,16 +3357,16 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:J6"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"開発１G,開発２G,SSDC,品質保証G"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:J35">
+      <formula1>"出荷OK,出荷NG"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"デジタル通信システム開発グループ"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:J35">
-      <formula1>"出荷OK,出荷NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.55118110236220497" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3387,31 +3377,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="B13:I23"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="69"/>
+      <c r="A1" s="41"/>
       <c r="B1" s="176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="176"/>
       <c r="D1" s="176"/>
@@ -3424,7 +3412,7 @@
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="42"/>
       <c r="C2" s="177" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="177"/>
       <c r="E2" s="177"/>
@@ -3440,10 +3428,10 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="62"/>
     </row>
@@ -3475,10 +3463,10 @@
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="180" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="180"/>
       <c r="H6" s="180"/>
@@ -3490,7 +3478,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="49"/>
       <c r="F7" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -3501,10 +3489,10 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="180"/>
       <c r="H8" s="180"/>
@@ -3518,7 +3506,7 @@
       <c r="F9" s="47"/>
       <c r="G9" s="51"/>
       <c r="H9" s="45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="52"/>
     </row>
@@ -3535,7 +3523,7 @@
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="46"/>
       <c r="C11" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -3547,7 +3535,7 @@
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="46"/>
       <c r="C12" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -3558,7 +3546,7 @@
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
       <c r="B13" s="181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="182"/>
       <c r="D13" s="183" t="s">
@@ -3572,7 +3560,7 @@
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
       <c r="B14" s="186" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="187"/>
       <c r="D14" s="188" t="str">
@@ -3587,7 +3575,7 @@
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
       <c r="B15" s="186" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="187"/>
       <c r="D15" s="53" t="str">
@@ -3607,113 +3595,113 @@
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
       <c r="B16" s="186" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="187"/>
       <c r="D16" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" s="191" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="187"/>
       <c r="G16" s="188" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="189"/>
       <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="206" t="s">
-        <v>90</v>
+      <c r="B17" s="207" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="187"/>
       <c r="E17" s="191" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="187"/>
       <c r="G17" s="54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="191" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="195"/>
       <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="207"/>
-      <c r="C18" s="247" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="196"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="196" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="197"/>
       <c r="E18" s="191" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="187"/>
       <c r="G18" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+        <v>97</v>
+      </c>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="207"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="207"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="201"/>
       <c r="G20" s="55"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="207"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="201"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="207"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="208"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="205"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="57"/>
       <c r="C24" s="58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="57"/>
@@ -3726,7 +3714,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="57"/>
       <c r="C25" s="58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="57"/>
@@ -3750,14 +3738,14 @@
       <c r="C27" s="58"/>
       <c r="D27" s="59"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="205" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="205" t="str">
+      <c r="F27" s="206" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="206" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="205"/>
+      <c r="H27" s="206"/>
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -3765,9 +3753,9 @@
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
       <c r="E28" s="57"/>
-      <c r="F28" s="205"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="191" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H28" s="187"/>
       <c r="I28" s="68"/>
@@ -3777,12 +3765,12 @@
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="205"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I29" s="68"/>
     </row>
@@ -3791,32 +3779,32 @@
       <c r="C30" s="58"/>
       <c r="D30" s="59"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
       <c r="I30" s="57"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" ht="12.75" customHeight="1">
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" ht="12.75" customHeight="1">
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" ht="12.75" customHeight="1">
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
@@ -3826,7 +3814,7 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" ht="12.75" customHeight="1">
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
@@ -3836,7 +3824,7 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" ht="12.75" customHeight="1">
       <c r="B35" s="62"/>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
@@ -3846,9 +3834,9 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="12.75" customHeight="1">
       <c r="B36" s="63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
@@ -3901,654 +3889,130 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B2" s="42"/>
-      <c r="C2" s="177" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="62"/>
-    </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="178" t="str">
-        <f>記入!B2&amp;"　御中"</f>
-        <v>${na.depositjapanese}　御中</v>
-      </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="180" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="180" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="66"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="181" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="185"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188" t="str">
-        <f>記入!B13</f>
-        <v>${na.claimnumber}</v>
-      </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
-    </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="53" t="str">
-        <f>記入!B17</f>
-        <v>${deliverydate}</v>
-      </c>
-      <c r="E15" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="192" t="str">
-        <f>記入!B18</f>
-        <v>${completiondate}</v>
-      </c>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="187"/>
-      <c r="D16" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="191" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="187"/>
-      <c r="G16" s="188" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
-    </row>
-    <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="191" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="187"/>
-      <c r="G17" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="195"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="207"/>
-      <c r="C18" s="247" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="187"/>
-      <c r="G18" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
-    </row>
-    <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="207"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-    </row>
-    <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="207"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-    </row>
-    <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="207"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-    </row>
-    <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="207"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-    </row>
-    <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="208"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
-    </row>
-    <row r="24" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="N24" s="64"/>
-    </row>
-    <row r="25" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="205" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="191" t="str">
-        <f>記入!B5</f>
-        <v>${na.entrustment}</v>
-      </c>
-      <c r="H27" s="187"/>
-      <c r="I27" s="68"/>
-    </row>
-    <row r="28" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="191" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="187"/>
-      <c r="I28" s="68"/>
-    </row>
-    <row r="29" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="68"/>
-    </row>
-    <row r="30" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-  </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
-  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="1" max="1" width="2.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="11"/>
     <col min="3" max="3" width="6" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="216" t="s">
+    <row r="1" spans="2:9" ht="30.6">
+      <c r="B1" s="217" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+    </row>
+    <row r="2" spans="2:9" ht="30.6">
+      <c r="B2" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-    </row>
-    <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="216" t="s">
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+    </row>
+    <row r="3" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B4" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-    </row>
-    <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="218" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="219" t="str">
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="220" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="220" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
+      <c r="B5" s="221" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
       <c r="E5" s="12" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="220" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="220"/>
+      <c r="G5" s="221" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="221"/>
       <c r="I5" s="12" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="221" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="220" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="220"/>
+      <c r="H6" s="221"/>
       <c r="I6" s="39" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="221" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="B7" s="222" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
       <c r="E7" s="15" t="str">
         <f>記入!B16</f>
         <v>${deliveryfinshdate}</v>
@@ -4560,50 +4024,50 @@
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
       <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
       <c r="B9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
@@ -4613,38 +4077,38 @@
       <c r="E10" s="28"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="222" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="223"/>
+      <c r="H10" s="223" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="224"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="224" t="str">
+      <c r="D11" s="225" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="225"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="40" t="e">
@@ -4656,14 +4120,14 @@
       <c r="B13" s="13"/>
       <c r="C13" s="32"/>
       <c r="D13" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>134</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>135</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="40">
@@ -4714,7 +4178,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="32"/>
       <c r="D18" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="13"/>
@@ -4729,7 +4193,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="13"/>
       <c r="G19" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="40" t="str">
@@ -4779,7 +4243,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4814,28 +4278,28 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="9.6" customHeight="1">
@@ -4846,61 +4310,61 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="226" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="227"/>
+      <c r="C3" s="227" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="228"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="230"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="4"/>
-      <c r="C5" s="230" t="str">
+      <c r="C5" s="231" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="231"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="4"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="4"/>
-      <c r="C7" s="244" t="str">
+      <c r="C7" s="245" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="4"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="246"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="4"/>
-      <c r="C9" s="234" t="str">
+      <c r="C9" s="235" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="235"/>
+      <c r="D9" s="236"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>記入!B17</f>
@@ -4910,34 +4374,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="C11" s="236" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="237"/>
+      <c r="C11" s="237" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="238"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="238" t="str">
+      <c r="C12" s="239" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="239"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1">
       <c r="B13" s="4"/>
-      <c r="C13" s="240" t="str">
+      <c r="C13" s="241" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="241"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="4"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="244"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4974,7 +4438,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.55118110236220497" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_松下PFANS_外网\S06 From Client\合同管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\03_release\newparkcloudRELEASE\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -79,17 +79,31 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
+          <t>jx:area(lastCell="K50")</t>
         </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>jx:area(lastCell="J36")</t>
         </r>
       </text>
     </comment>
@@ -549,12 +563,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,7 +611,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -747,6 +761,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1356,7 +1377,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1372,7 +1393,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,7 +1468,7 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1459,7 +1480,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1486,7 +1507,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,20 +1587,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1654,16 +1675,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1680,6 +1701,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1702,63 +1741,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1787,6 +1772,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,6 +1815,36 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,6 +1860,24 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1857,31 +1896,70 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1890,63 +1968,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1959,23 +1980,23 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2037,10 +2058,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2098,7 +2119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2133,7 +2154,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2344,16 +2365,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="67" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2755,19 +2776,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="69" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="69" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="69" customWidth="1"/>
     <col min="8" max="8" width="14" style="69" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="69" customWidth="1"/>
-    <col min="11" max="11" width="2.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="69" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
@@ -2883,129 +2904,129 @@
       <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="140"/>
+      <c r="D9" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="162"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="162"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="72"/>
@@ -3019,89 +3040,89 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125" t="s">
+      <c r="C21" s="140"/>
+      <c r="D21" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
     </row>
     <row r="27" spans="2:10" ht="14.25" customHeight="1">
       <c r="B27" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="112"/>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="125" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="118"/>
       <c r="F27" s="118"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="72"/>
@@ -3115,17 +3136,17 @@
       <c r="J28" s="72"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="161" t="s">
+      <c r="B29" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="162"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
       <c r="I29" s="120" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
@@ -3133,28 +3154,28 @@
       <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="153"/>
-      <c r="C30" s="163"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="153"/>
       <c r="D30" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="137"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
       <c r="I30" s="120" t="s">
         <v>62</v>
       </c>
       <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="164"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="142" t="s">
+      <c r="B31" s="154"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="143"/>
-      <c r="F31" s="144"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="171"/>
       <c r="G31" s="123" t="s">
         <v>63</v>
       </c>
@@ -3166,11 +3187,11 @@
       <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="164"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="147"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
       <c r="G32" s="123" t="s">
         <v>64</v>
       </c>
@@ -3182,10 +3203,10 @@
       <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="165"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="150"/>
       <c r="G33" s="123" t="s">
         <v>65</v>
@@ -3199,28 +3220,28 @@
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
       <c r="I34" s="72"/>
       <c r="J34" s="72"/>
     </row>
     <row r="35" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="139" t="s">
+      <c r="C35" s="167"/>
+      <c r="D35" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="140"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="167"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="74" t="s">
@@ -3268,43 +3289,43 @@
       <c r="J44" s="75"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="151" t="s">
+      <c r="E45" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="152"/>
-      <c r="G45" s="151" t="s">
+      <c r="F45" s="140"/>
+      <c r="G45" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="152"/>
+      <c r="H45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="153"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="154"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="142"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="155"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="156"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="144"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="157"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="158"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="146"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="159"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="160"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="148"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="148"/>
+      <c r="E50" s="149"/>
       <c r="F50" s="150"/>
-      <c r="G50" s="148"/>
+      <c r="G50" s="149"/>
       <c r="H50" s="150"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3377,22 +3398,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3545,158 +3566,158 @@
       <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183" t="s">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="185"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="185"/>
+      <c r="D14" s="181" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="187"/>
+      <c r="C15" s="185"/>
       <c r="D15" s="53" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="191" t="s">
+      <c r="E15" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="192" t="str">
+      <c r="F15" s="185"/>
+      <c r="G15" s="193" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
       </c>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="187"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="191" t="s">
+      <c r="E16" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="187"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="191" t="s">
+      <c r="D17" s="185"/>
+      <c r="E17" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="187"/>
+      <c r="F17" s="185"/>
       <c r="G17" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="191" t="s">
+      <c r="H17" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="186"/>
       <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="208"/>
-      <c r="C18" s="196" t="s">
+      <c r="B18" s="202"/>
+      <c r="C18" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="197"/>
-      <c r="E18" s="191" t="s">
+      <c r="D18" s="216"/>
+      <c r="E18" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="185"/>
       <c r="G18" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="206"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="208"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="198"/>
       <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="208"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="208"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="198"/>
       <c r="D20" s="199"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="201"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="55"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="208"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="208"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="198"/>
       <c r="D21" s="199"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="201"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="208"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="208"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="198"/>
       <c r="D22" s="199"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="208"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="209"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="57"/>
@@ -3738,14 +3759,14 @@
       <c r="C27" s="58"/>
       <c r="D27" s="59"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="206" t="s">
+      <c r="F27" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="206" t="str">
+      <c r="G27" s="200" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="206"/>
+      <c r="H27" s="200"/>
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -3753,11 +3774,11 @@
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
       <c r="E28" s="57"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="191" t="s">
+      <c r="F28" s="200"/>
+      <c r="G28" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="187"/>
+      <c r="H28" s="185"/>
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -3765,7 +3786,7 @@
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="206"/>
+      <c r="F29" s="200"/>
       <c r="G29" s="60" t="s">
         <v>102</v>
       </c>
@@ -3779,9 +3800,9 @@
       <c r="C30" s="58"/>
       <c r="D30" s="59"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
       <c r="I30" s="57"/>
     </row>
     <row r="31" spans="2:14" ht="12.75" customHeight="1">
@@ -3789,9 +3810,9 @@
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:14" ht="12.75" customHeight="1">
@@ -3799,9 +3820,9 @@
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="210"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1">
@@ -3893,6 +3914,7 @@
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3904,22 +3926,22 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="11"/>
+    <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="11"/>
     <col min="3" max="3" width="6" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="11"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30.6">
+    <row r="1" spans="2:9" ht="31.5">
       <c r="B1" s="217" t="s">
         <v>105</v>
       </c>
@@ -3931,7 +3953,7 @@
       <c r="H1" s="217"/>
       <c r="I1" s="217"/>
     </row>
-    <row r="2" spans="2:9" ht="30.6">
+    <row r="2" spans="2:9" ht="31.5">
       <c r="B2" s="217" t="s">
         <v>106</v>
       </c>
@@ -3969,50 +3991,50 @@
       <c r="I4" s="220"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="12" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="221" t="s">
+      <c r="G5" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="221"/>
+      <c r="H5" s="225"/>
       <c r="I5" s="12" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="14" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="221" t="s">
+      <c r="G6" s="225" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="221"/>
+      <c r="H6" s="225"/>
       <c r="I6" s="39" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="15" t="str">
         <f>記入!B16</f>
         <v>${deliveryfinshdate}</v>
@@ -4077,23 +4099,23 @@
       <c r="E10" s="28"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="223" t="s">
+      <c r="H10" s="221" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="224"/>
+      <c r="I10" s="222"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="225" t="str">
+      <c r="D11" s="223" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="226"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="31" t="s">
@@ -4292,14 +4314,14 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="9.6" customHeight="1">

--- a/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_us.xlsx
@@ -5,35 +5,33 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\03_release\newparkcloudRELEASE\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
     <sheet name="出荷判定書" sheetId="3" r:id="rId2"/>
-    <sheet name="納品明細書兼物品受領書（正）" sheetId="5" r:id="rId3"/>
-    <sheet name="納品明細書兼物品受領書（副）" sheetId="7" r:id="rId4"/>
-    <sheet name="INVOICE" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="CDラベル" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="納品明細書兼物品受領書" sheetId="5" r:id="rId3"/>
+    <sheet name="INVOICE" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="CDラベル" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">CDラベル!$A$1:$F$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">INVOICE!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">CDラベル!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">INVOICE!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">出荷判定書!$A$1:$K$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">納品明細書兼物品受領書!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>DONG</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -42,9 +40,22 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <rFont val="MS PGothic"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="H49")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H49")</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -55,7 +66,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>DONG</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -65,6 +76,8 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="K50")</t>
         </r>
@@ -77,7 +90,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>DONG</author>
+    <author>newtouch</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -86,29 +99,9 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
-          </rPr>
-          <t>jx:area(lastCell="J36")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DONG</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="J36")</t>
         </r>
@@ -119,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="141">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -296,6 +289,9 @@
   </si>
   <si>
     <t>納品物</t>
+  </si>
+  <si>
+    <t>①${na.pjnameenglish}の開発一式</t>
   </si>
   <si>
     <t>出荷判定</t>
@@ -336,7 +332,7 @@
 責任者</t>
   </si>
   <si>
-    <t>納品明細書（兼）物品受領書（正）</t>
+    <t>納品明細書（兼）物品受領書</t>
   </si>
   <si>
     <t>（本書は物件の納入日に依頼元へご提出下さい。）</t>
@@ -433,13 +429,7 @@
     <t>　　 担当</t>
   </si>
   <si>
-    <t>ドメイン側保管</t>
-  </si>
-  <si>
-    <t>納品明細書（兼）物品受領書（副）</t>
-  </si>
-  <si>
-    <t>PSDCD側保管</t>
+    <t>納品明細書（兼）物品受領書はPDFがオリジナルデータであり、紙は送付しません。</t>
   </si>
   <si>
     <t>发   票</t>
@@ -542,6 +532,8 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">销货单位 THE SELLER：  </t>
     </r>
@@ -550,6 +542,8 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
     </r>
@@ -562,10 +556,6 @@
   </si>
   <si>
     <t>内容物</t>
-  </si>
-  <si>
-    <t>①${na.pjnameenglish}の開発一式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,12 +563,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -621,28 +611,38 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
@@ -686,11 +686,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="HGP創英角ｺﾞｼｯｸUB"/>
       <charset val="128"/>
     </font>
@@ -702,6 +697,11 @@
     <font>
       <sz val="12"/>
       <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
@@ -734,7 +734,22 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -747,17 +762,11 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="HGP創英角ｺﾞｼｯｸUB"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1355,10 +1364,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1368,7 +1377,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1384,7 +1393,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,11 +1468,11 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,7 +1480,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1498,7 +1507,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,23 +1547,20 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1581,20 +1587,20 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,71 +1636,92 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1702,51 +1729,42 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,25 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1788,53 +1788,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,6 +1860,24 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1869,93 +1896,78 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1968,23 +1980,23 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2043,12 +2055,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2113,7 +2119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,7 +2154,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2357,400 +2363,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="57.7109375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="99"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="78" t="s">
+      <c r="E1" s="98"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-    </row>
-    <row r="4" spans="1:5" s="77" customFormat="1">
-      <c r="A4" s="78" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+    </row>
+    <row r="4" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="78" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-    </row>
-    <row r="6" spans="1:5" s="77" customFormat="1">
-      <c r="A6" s="84" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+    </row>
+    <row r="6" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-    </row>
-    <row r="7" spans="1:5" s="77" customFormat="1">
-      <c r="A7" s="84" t="s">
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+    </row>
+    <row r="7" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-    </row>
-    <row r="8" spans="1:5" s="77" customFormat="1">
-      <c r="A8" s="78" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+    </row>
+    <row r="8" spans="1:5" s="76" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="81" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="84" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A10" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="84" t="s">
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A11" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="78" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="78" t="s">
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="78" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="78" t="s">
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="78" t="s">
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A16" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="78" t="s">
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="78" t="s">
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A18" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="78" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="78" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="78" t="s">
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="78" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="83" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="81" t="s">
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="81" t="s">
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="81" t="s">
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="79" t="str">
+      <c r="B25" s="78" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="81" t="s">
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="81" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5">
-      <c r="A28" s="96"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.5">
-      <c r="A29" s="96"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.5">
-      <c r="A30" s="96"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.5">
-      <c r="A31" s="96"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.5">
-      <c r="A32" s="96"/>
-    </row>
-    <row r="33" spans="1:1" ht="13.5">
-      <c r="A33" s="96"/>
-    </row>
-    <row r="34" spans="1:1" ht="13.5">
-      <c r="A34" s="96"/>
-    </row>
-    <row r="35" spans="1:1" ht="13.5">
-      <c r="A35" s="96"/>
-    </row>
-    <row r="36" spans="1:1" ht="13.5">
-      <c r="A36" s="96"/>
-    </row>
-    <row r="37" spans="1:1" ht="13.5">
-      <c r="A37" s="96"/>
-    </row>
-    <row r="38" spans="1:1" ht="13.5">
-      <c r="A38" s="96"/>
-    </row>
-    <row r="39" spans="1:1" ht="13.5">
-      <c r="A39" s="96"/>
-    </row>
-    <row r="40" spans="1:1" ht="13.5">
-      <c r="A40" s="96"/>
-    </row>
-    <row r="41" spans="1:1" ht="13.5">
-      <c r="A41" s="96"/>
-    </row>
-    <row r="42" spans="1:1" ht="13.5">
-      <c r="A42" s="96"/>
-    </row>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A28" s="95"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A29" s="95"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A30" s="95"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A31" s="95"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A32" s="95"/>
+    </row>
+    <row r="33" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A33" s="95"/>
+    </row>
+    <row r="34" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A34" s="95"/>
+    </row>
+    <row r="35" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A35" s="95"/>
+    </row>
+    <row r="36" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A36" s="95"/>
+    </row>
+    <row r="37" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A37" s="95"/>
+    </row>
+    <row r="38" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A38" s="95"/>
+    </row>
+    <row r="39" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A39" s="95"/>
+    </row>
+    <row r="40" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A40" s="95"/>
+    </row>
+    <row r="41" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A41" s="95"/>
+    </row>
+    <row r="42" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A42" s="95"/>
+    </row>
+    <row r="43" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E27"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2762,492 +2776,489 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:J21"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="70" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="70"/>
-    <col min="8" max="8" width="14" style="70" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="70"/>
-    <col min="10" max="10" width="15.5703125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="69" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="14" style="69" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="69" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="71"/>
-      <c r="B1" s="104" t="s">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
-    <row r="3" spans="1:10">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="105" t="str">
+      <c r="C3" s="104" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="108" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B5" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="108" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B6" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114" t="str">
+      <c r="C6" s="112"/>
+      <c r="D6" s="113" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="108" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B7" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="117" t="str">
-        <f>記入!B14</f>
-        <v>${statime[0]}</v>
-      </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="74" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="119" t="str">
-        <f>記入!B15</f>
-        <v>${statime[1]}</v>
-      </c>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="108" t="s">
+      <c r="H7" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B8" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="121" t="str">
+      <c r="C8" s="112"/>
+      <c r="D8" s="120" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="124"/>
+      <c r="I8" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="140"/>
+      <c r="D9" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="150"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="150"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="150"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="150"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="162"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="162"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="246" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="150"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="108" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+    </row>
+    <row r="27" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B27" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="132" t="str">
-        <f>記入!B17</f>
-        <v>${deliverydate}</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="154" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="124" t="s">
+      <c r="B29" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="152"/>
+      <c r="D29" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="121" t="str">
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="120" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="123"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="150"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="121" t="s">
+      <c r="B30" s="141"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="123"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="157"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="160" t="s">
+      <c r="B31" s="154"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="125"/>
-      <c r="I31" s="121" t="str">
+      <c r="E31" s="170"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="124"/>
+      <c r="I31" s="120" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="123"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="157"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="125"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="124"/>
       <c r="I32" s="138" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
-      <c r="J32" s="123"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="158"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="124" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="125"/>
-      <c r="I33" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="123"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="124"/>
+      <c r="I33" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="139" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B35" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="140"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="167"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B36" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="B36" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B37" s="76" t="s">
-        <v>68</v>
+      <c r="B37" s="75" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="13.5" customHeight="1"/>
@@ -3256,66 +3267,66 @@
     <row r="41" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="149"/>
-      <c r="G45" s="148" t="s">
+      <c r="E45" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="149"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="150"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="151"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="142"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="152"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="153"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="144"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="142"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="143"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="146"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="144"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="145"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="148"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="146"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="147"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="150"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3323,20 +3334,20 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="G45:H47"/>
     <mergeCell ref="E48:F50"/>
     <mergeCell ref="G48:H50"/>
-    <mergeCell ref="E45:F47"/>
-    <mergeCell ref="G45:H47"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="B21:C26"/>
     <mergeCell ref="B29:C33"/>
-    <mergeCell ref="D31:F33"/>
+    <mergeCell ref="D9:J19"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D31:F33"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="G31:H31"/>
@@ -3367,16 +3378,16 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:J6"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"開発１G,開発２G,SSDC,品質保証G"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:J35">
+      <formula1>"出荷OK,出荷NG"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"デジタル通信システム開発グループ"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:J35">
-      <formula1>"出荷OK,出荷NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.55118110236220497" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3390,9 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="B13:I23"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
@@ -3409,9 +3418,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="69"/>
+      <c r="A1" s="41"/>
       <c r="B1" s="176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="176"/>
       <c r="D1" s="176"/>
@@ -3424,7 +3433,7 @@
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="42"/>
       <c r="C2" s="177" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="177"/>
       <c r="E2" s="177"/>
@@ -3440,10 +3449,10 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="62"/>
     </row>
@@ -3475,10 +3484,10 @@
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="180" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="180"/>
       <c r="H6" s="180"/>
@@ -3490,7 +3499,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="49"/>
       <c r="F7" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -3501,10 +3510,10 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="180"/>
       <c r="H8" s="180"/>
@@ -3518,7 +3527,7 @@
       <c r="F9" s="47"/>
       <c r="G9" s="51"/>
       <c r="H9" s="45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="52"/>
     </row>
@@ -3535,7 +3544,7 @@
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="46"/>
       <c r="C11" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -3547,7 +3556,7 @@
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="46"/>
       <c r="C12" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -3557,163 +3566,163 @@
       <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="181" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183" t="s">
+      <c r="B13" s="187" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="185"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188" t="str">
+      <c r="B14" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="185"/>
+      <c r="D14" s="181" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="187"/>
+      <c r="B15" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="185"/>
       <c r="D15" s="53" t="str">
         <f>記入!B17</f>
         <v>${deliverydate}</v>
       </c>
-      <c r="E15" s="191" t="s">
+      <c r="E15" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="192" t="str">
+      <c r="F15" s="185"/>
+      <c r="G15" s="193" t="str">
         <f>記入!B18</f>
         <v>${completiondate}</v>
       </c>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="187"/>
+      <c r="B16" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="185"/>
       <c r="D16" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="187"/>
-      <c r="G16" s="188" t="s">
+      <c r="E16" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="181" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="182"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="191" t="s">
+      <c r="C17" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="187"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="185"/>
       <c r="G17" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="H17" s="184" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="186"/>
       <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="207"/>
-      <c r="C18" s="247" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="187"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="216"/>
+      <c r="E18" s="184" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="185"/>
       <c r="G18" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+        <v>97</v>
+      </c>
+      <c r="H18" s="205"/>
+      <c r="I18" s="206"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="207"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="208"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="207"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="55"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="208"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="207"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="208"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="207"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="208"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="208"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="57"/>
       <c r="C24" s="58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="57"/>
@@ -3726,7 +3735,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="57"/>
       <c r="C25" s="58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="57"/>
@@ -3750,14 +3759,14 @@
       <c r="C27" s="58"/>
       <c r="D27" s="59"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="205" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="205" t="str">
+      <c r="F27" s="200" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="200" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="205"/>
+      <c r="H27" s="200"/>
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -3765,11 +3774,11 @@
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
       <c r="E28" s="57"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="191" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="187"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="184" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="185"/>
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -3777,12 +3786,12 @@
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="57"/>
-      <c r="F29" s="205"/>
+      <c r="F29" s="200"/>
       <c r="G29" s="60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I29" s="68"/>
     </row>
@@ -3791,32 +3800,32 @@
       <c r="C30" s="58"/>
       <c r="D30" s="59"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
       <c r="I30" s="57"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" ht="12.75" customHeight="1">
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" ht="12.75" customHeight="1">
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" ht="12.75" customHeight="1">
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
@@ -3826,7 +3835,7 @@
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" ht="12.75" customHeight="1">
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
@@ -3836,7 +3845,7 @@
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" ht="12.75" customHeight="1">
       <c r="B35" s="62"/>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
@@ -3846,9 +3855,9 @@
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="12.75" customHeight="1">
       <c r="B36" s="63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
@@ -3901,7 +3910,7 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3910,537 +3919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B2" s="42"/>
-      <c r="C2" s="177" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="62"/>
-    </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="178" t="str">
-        <f>記入!B2&amp;"　御中"</f>
-        <v>${na.depositjapanese}　御中</v>
-      </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="180" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="180" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="66"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="181" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="185"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188" t="str">
-        <f>記入!B13</f>
-        <v>${na.claimnumber}</v>
-      </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
-    </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="53" t="str">
-        <f>記入!B17</f>
-        <v>${deliverydate}</v>
-      </c>
-      <c r="E15" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="192" t="str">
-        <f>記入!B18</f>
-        <v>${completiondate}</v>
-      </c>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="187"/>
-      <c r="D16" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="191" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="187"/>
-      <c r="G16" s="188" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
-    </row>
-    <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="191" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="187"/>
-      <c r="G17" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="195"/>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="207"/>
-      <c r="C18" s="247" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="187"/>
-      <c r="G18" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
-    </row>
-    <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="207"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-    </row>
-    <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="207"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-    </row>
-    <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="207"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-    </row>
-    <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="207"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-    </row>
-    <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="208"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
-    </row>
-    <row r="24" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="N24" s="64"/>
-    </row>
-    <row r="25" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="205" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="191" t="str">
-        <f>記入!B5</f>
-        <v>${na.entrustment}</v>
-      </c>
-      <c r="H27" s="187"/>
-      <c r="I27" s="68"/>
-    </row>
-    <row r="28" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="191" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="187"/>
-      <c r="I28" s="68"/>
-    </row>
-    <row r="29" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="68"/>
-    </row>
-    <row r="30" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-  </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
-  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="11"/>
@@ -4456,99 +3942,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="217" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+    </row>
+    <row r="2" spans="2:9" ht="31.5">
+      <c r="B2" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-    </row>
-    <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="216" t="s">
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+    </row>
+    <row r="3" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B4" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-    </row>
-    <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="218" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="219" t="str">
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="220" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="220" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
+      <c r="B5" s="225" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="12" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="220" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="220"/>
+      <c r="G5" s="225" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="225"/>
       <c r="I5" s="12" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="225" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="225" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="220" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="220"/>
+      <c r="H6" s="225"/>
       <c r="I6" s="39" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="221" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
+      <c r="B7" s="226" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="15" t="str">
         <f>記入!B16</f>
         <v>${deliveryfinshdate}</v>
@@ -4560,50 +4046,50 @@
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
       <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
       <c r="B9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
@@ -4613,38 +4099,38 @@
       <c r="E10" s="28"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="222" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="223"/>
+      <c r="H10" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="222"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="224" t="str">
+      <c r="D11" s="223" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="225"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="40" t="e">
@@ -4656,14 +4142,14 @@
       <c r="B13" s="13"/>
       <c r="C13" s="32"/>
       <c r="D13" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>134</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>135</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="40">
@@ -4714,7 +4200,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="32"/>
       <c r="D18" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="13"/>
@@ -4729,7 +4215,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="13"/>
       <c r="G19" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="40" t="str">
@@ -4779,7 +4265,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4814,17 +4300,17 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4846,61 +4332,61 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="226" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="227"/>
+      <c r="C3" s="227" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="228"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="230"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="4"/>
-      <c r="C5" s="230" t="str">
+      <c r="C5" s="231" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="231"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="4"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="4"/>
-      <c r="C7" s="244" t="str">
+      <c r="C7" s="245" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="4"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="246"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="4"/>
-      <c r="C9" s="234" t="str">
+      <c r="C9" s="235" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="235"/>
+      <c r="D9" s="236"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>記入!B17</f>
@@ -4910,34 +4396,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="C11" s="236" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="237"/>
+      <c r="C11" s="237" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="238"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="238" t="str">
+      <c r="C12" s="239" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="239"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1">
       <c r="B13" s="4"/>
-      <c r="C13" s="240" t="str">
+      <c r="C13" s="241" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="241"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="4"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="244"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4974,7 +4460,7 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.55118110236220497" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
